--- a/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>LOVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,220 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43863</v>
+      </c>
+      <c r="E7" s="2">
         <v>43772</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43590</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43499</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43317</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43226</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43037</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42946</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42582</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>92200</v>
+      </c>
+      <c r="E8" s="3">
         <v>52100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>48100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>41000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>64200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>41700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>33200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>39000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>24400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>17600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>30500</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E9" s="3">
         <v>25800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>23900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>20000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>28700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>18800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14700</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E10" s="3">
         <v>26300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>24200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>21000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>35500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>22900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>17800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>22900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>15800</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +895,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +940,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +987,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1014,41 +1034,44 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E15" s="3">
         <v>1400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>700</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3">
         <v>800</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1058,8 +1081,11 @@
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1099,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>86800</v>
+      </c>
+      <c r="E17" s="3">
         <v>59000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>53100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>50300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>55900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>44400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>40200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>32400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>36500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>36500</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1212,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1188,7 +1222,7 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
@@ -1200,10 +1234,10 @@
         <v>200</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>-100</v>
@@ -1212,63 +1246,69 @@
         <v>-100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4800</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1306,57 +1346,63 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6300</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1387,8 +1433,8 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1399,8 +1445,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1492,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6300</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-33700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6300</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1633,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1680,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1727,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1774,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1716,7 +1786,7 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
@@ -1728,10 +1798,10 @@
         <v>-200</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>100</v>
@@ -1740,63 +1810,69 @@
         <v>100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-33700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6300</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1915,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-33700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6300</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43863</v>
+      </c>
+      <c r="E38" s="2">
         <v>43772</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43590</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43499</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43317</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43226</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43037</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42946</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42582</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2035,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,38 +2054,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E41" s="3">
         <v>27900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>35700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>49100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>44700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>48200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2012,8 +2099,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,38 +2146,41 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E43" s="3">
         <v>8600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,38 +2193,41 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E44" s="3">
         <v>50200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>40700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>30900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>26200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>24600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>20200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>13900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11600</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2144,38 +2240,41 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E45" s="3">
         <v>8700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>5800</v>
       </c>
       <c r="J45" s="3">
         <v>5800</v>
       </c>
       <c r="K45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="L45" s="3">
         <v>6100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,38 +2287,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100200</v>
+      </c>
+      <c r="E46" s="3">
         <v>95400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>97500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>78000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>85100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>78500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>78300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>24900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29700</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2232,8 +2334,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,38 +2381,41 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E48" s="3">
         <v>21800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>20400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>18600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>17100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2320,37 +2428,40 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E49" s="3">
         <v>1300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1100</v>
       </c>
       <c r="G49" s="3">
         <v>1100</v>
       </c>
       <c r="H49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I49" s="3">
         <v>1000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>800</v>
-      </c>
-      <c r="J49" s="3">
-        <v>700</v>
       </c>
       <c r="K49" s="3">
         <v>700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>700</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2364,8 +2475,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2522,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,13 +2569,16 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
@@ -2473,16 +2593,16 @@
         <v>200</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2496,8 +2616,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,38 +2663,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>125700</v>
+      </c>
+      <c r="E54" s="3">
         <v>118700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>119300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>98800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>105000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>96800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>95100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>39100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2710,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2731,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,38 +2750,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E57" s="3">
         <v>19000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>15300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2664,19 +2795,22 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2693,8 +2827,8 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -2708,38 +2842,41 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E59" s="3">
         <v>12800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,38 +2889,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E60" s="3">
         <v>31800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>27400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>24600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>25100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>21500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,8 +2936,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2820,11 +2963,11 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2840,38 +2983,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E62" s="3">
         <v>2500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1600</v>
       </c>
       <c r="G62" s="3">
         <v>1600</v>
       </c>
       <c r="H62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I62" s="3">
         <v>1400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2884,8 +3030,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3077,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3124,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,38 +3171,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E66" s="3">
         <v>34300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>28700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>29000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>26200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>26500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3060,8 +3218,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3239,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3284,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3331,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3378,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,38 +3425,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-78200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-83600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-76800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-72100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-63000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-71400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-68900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-61900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-56300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3298,8 +3472,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3519,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3566,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,38 +3613,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E76" s="3">
         <v>84400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>90600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>69700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>78800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>70300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>72200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3660,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3707,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43863</v>
+      </c>
+      <c r="E80" s="2">
         <v>43772</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43590</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43499</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43317</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43226</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43037</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42946</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42582</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-33700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6300</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,52 +3827,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E83" s="3">
         <v>1400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>700</v>
       </c>
       <c r="K83" s="3">
         <v>700</v>
       </c>
       <c r="L83" s="3">
+        <v>700</v>
+      </c>
+      <c r="M83" s="3">
         <v>800</v>
-      </c>
-      <c r="M83" s="3">
-        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
       </c>
       <c r="O83" s="3">
+        <v>300</v>
+      </c>
+      <c r="P83" s="3">
         <v>1200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3919,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3966,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4013,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4060,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4107,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6300</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,52 +4175,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1400</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4267,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,52 +4314,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1400</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-2300</v>
       </c>
       <c r="M94" s="3">
         <v>-2300</v>
       </c>
       <c r="N94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O94" s="3">
         <v>-800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1400</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4382,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4427,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4474,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4521,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,52 +4568,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>25400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>57400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8400</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,48 +4662,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>46300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>LOVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,220 +665,233 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43954</v>
+      </c>
+      <c r="E7" s="2">
         <v>43863</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43772</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43590</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43499</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43317</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43226</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43037</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42946</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42582</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E8" s="3">
         <v>92200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>52100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>48100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>41000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>64200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>41700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>33200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>39000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>24400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>17600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>30500</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E9" s="3">
         <v>47000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>25800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>23900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>20000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>28700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>18800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14700</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E10" s="3">
         <v>45200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>26300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>24200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>21000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>35500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>22900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>17800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>22900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>15800</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -896,8 +909,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -943,8 +957,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,8 +1007,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1037,44 +1057,47 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E15" s="3">
         <v>1500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>700</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
         <v>800</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,8 +1107,11 @@
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1100,102 +1126,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E17" s="3">
         <v>86800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>59000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>53100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>50300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>55900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>44400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>40200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>32400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>36500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>36500</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E18" s="3">
         <v>5400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1213,19 +1246,20 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
@@ -1237,10 +1271,10 @@
         <v>200</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
@@ -1249,66 +1283,72 @@
         <v>-100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E21" s="3">
         <v>6900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1349,60 +1389,66 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E23" s="3">
         <v>5400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1436,8 +1482,8 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1448,8 +1494,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1495,102 +1544,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E26" s="3">
         <v>5400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E27" s="3">
         <v>5400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-33700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1636,8 +1694,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1683,8 +1744,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1730,8 +1794,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1777,19 +1844,22 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
@@ -1801,10 +1871,10 @@
         <v>-200</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>100</v>
@@ -1813,66 +1883,72 @@
         <v>100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E33" s="3">
         <v>5400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-33700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1918,107 +1994,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E35" s="3">
         <v>5400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-33700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43954</v>
+      </c>
+      <c r="E38" s="2">
         <v>43863</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43772</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43590</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43499</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43317</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43226</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43037</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42946</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42582</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2036,8 +2121,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2055,41 +2141,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E41" s="3">
         <v>48500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>44200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>35700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>49100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>44700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>48200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2102,8 +2189,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2149,41 +2239,44 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E43" s="3">
         <v>7200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2800</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,41 +2289,44 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E44" s="3">
         <v>36400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>50200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>40700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>30900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>26200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>24600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>20200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11600</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2243,41 +2339,44 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E45" s="3">
         <v>8100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>5800</v>
       </c>
       <c r="K45" s="3">
         <v>5800</v>
       </c>
       <c r="L45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="M45" s="3">
         <v>6100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2290,41 +2389,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E46" s="3">
         <v>100200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>95400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>97500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>78000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>85100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>78500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>78300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>29700</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2337,8 +2439,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2384,41 +2489,44 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E48" s="3">
         <v>23800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>21800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>20400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>18600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>17100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2431,40 +2539,43 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1100</v>
       </c>
       <c r="H49" s="3">
         <v>1100</v>
       </c>
       <c r="I49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J49" s="3">
         <v>1000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>800</v>
-      </c>
-      <c r="K49" s="3">
-        <v>700</v>
       </c>
       <c r="L49" s="3">
         <v>700</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+      <c r="M49" s="3">
+        <v>700</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2478,8 +2589,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2525,8 +2639,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2572,16 +2689,19 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>200</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -2596,16 +2716,16 @@
         <v>200</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
@@ -2619,8 +2739,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2666,41 +2789,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>118100</v>
+      </c>
+      <c r="E54" s="3">
         <v>125700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>118700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>119300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>98800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>105000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>96800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>95100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>39100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>41400</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2713,8 +2839,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2732,8 +2861,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2751,41 +2881,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E57" s="3">
         <v>19900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>15300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12700</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2798,8 +2929,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2830,8 +2964,8 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
@@ -2845,41 +2979,44 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E59" s="3">
         <v>12500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2892,41 +3029,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E60" s="3">
         <v>32400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>31800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>27100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>27400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>24600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>25100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>21500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16700</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2939,8 +3079,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2966,11 +3109,11 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2986,41 +3129,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E62" s="3">
         <v>3100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1600</v>
       </c>
       <c r="H62" s="3">
         <v>1600</v>
       </c>
       <c r="I62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J62" s="3">
         <v>1400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3033,8 +3179,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3080,8 +3229,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3127,8 +3279,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3174,8 +3329,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3183,32 +3341,32 @@
         <v>35500</v>
       </c>
       <c r="E66" s="3">
+        <v>35500</v>
+      </c>
+      <c r="F66" s="3">
         <v>34300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>28700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>29000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>26200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>26500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,8 +3379,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3240,8 +3401,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3287,8 +3449,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3334,8 +3499,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3381,8 +3549,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3428,41 +3599,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-86500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-78200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-83600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-76800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-72100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-63000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-71400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-68900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-61900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-56300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3475,8 +3649,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3522,8 +3699,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3569,8 +3749,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3616,41 +3799,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E76" s="3">
         <v>90200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>84400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>90600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>69700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>78800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>70300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>72200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +3849,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3710,107 +3899,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43954</v>
+      </c>
+      <c r="E80" s="2">
         <v>43863</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43772</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43590</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43499</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43317</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43226</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43037</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42946</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42582</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E81" s="3">
         <v>5400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-33700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3828,55 +4026,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>800</v>
-      </c>
-      <c r="K83" s="3">
-        <v>700</v>
       </c>
       <c r="L83" s="3">
         <v>700</v>
       </c>
       <c r="M83" s="3">
+        <v>700</v>
+      </c>
+      <c r="N83" s="3">
         <v>800</v>
-      </c>
-      <c r="N83" s="3">
-        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>300</v>
       </c>
       <c r="P83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1200</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3922,8 +4124,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3969,8 +4174,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4016,8 +4224,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4063,8 +4274,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4110,55 +4324,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>25200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4176,55 +4396,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4270,8 +4494,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4317,55 +4544,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1400</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-2300</v>
       </c>
       <c r="N94" s="3">
         <v>-2300</v>
       </c>
       <c r="O94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4383,8 +4616,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4430,8 +4664,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4477,8 +4714,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4524,8 +4764,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4571,55 +4814,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>25400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>57400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8400</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4665,51 +4914,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E102" s="3">
         <v>20600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-16300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>46300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>LOVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,246 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44045</v>
+      </c>
+      <c r="E7" s="2">
         <v>43954</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43863</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43772</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43590</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43499</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43317</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43226</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43037</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42946</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42582</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E8" s="3">
         <v>54400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>92200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>52100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>48100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>41000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>64200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>41700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>39000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>17600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>30500</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E9" s="3">
         <v>27100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>47000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>25800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>23900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>20000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>28700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>18800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14700</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E10" s="3">
         <v>27300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>45200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>26300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>24200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>21000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>35500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>22900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>22900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>15800</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,8 +923,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -960,8 +974,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1010,8 +1027,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1060,47 +1080,50 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E15" s="3">
         <v>1600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>700</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3">
         <v>800</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1110,8 +1133,11 @@
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1127,108 +1153,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E17" s="3">
         <v>62800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>86800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>59000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>53100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>50300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>55900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>44400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>40200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>32400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>36500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>36500</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1247,8 +1280,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1256,13 +1290,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
@@ -1274,10 +1308,10 @@
         <v>200</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
@@ -1286,69 +1320,75 @@
         <v>-100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4800</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1392,63 +1432,69 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6300</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1485,8 +1531,8 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1497,8 +1543,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1547,108 +1596,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6300</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-33700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6300</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1697,8 +1755,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1747,8 +1808,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1797,8 +1861,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1847,8 +1914,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1856,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
@@ -1874,10 +1944,10 @@
         <v>-200</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
@@ -1886,69 +1956,75 @@
         <v>100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-33700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6300</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1997,113 +2073,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-33700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6300</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44045</v>
+      </c>
+      <c r="E38" s="2">
         <v>43954</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43863</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43772</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43590</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43499</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43317</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43226</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43037</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42946</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42582</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2122,8 +2207,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2142,44 +2228,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E41" s="3">
         <v>45500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>48500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>44200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>35700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>49100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>44700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>48200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,8 +2279,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2242,44 +2332,47 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E43" s="3">
         <v>7100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2800</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2292,44 +2385,47 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E44" s="3">
         <v>33400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>36400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>50200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>40700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>30900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>26200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>24600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>20200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11600</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2342,44 +2438,47 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E45" s="3">
         <v>5900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>5800</v>
       </c>
       <c r="L45" s="3">
         <v>5800</v>
       </c>
       <c r="M45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="N45" s="3">
         <v>6100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2392,44 +2491,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>107800</v>
+      </c>
+      <c r="E46" s="3">
         <v>91900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>100200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>95400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>97500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>78000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>85100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>78500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>78300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>29700</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2442,8 +2544,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2492,44 +2597,47 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E48" s="3">
         <v>24400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>23800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>21800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>20400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>19500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>18600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>17100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2542,43 +2650,46 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1100</v>
       </c>
       <c r="I49" s="3">
         <v>1100</v>
       </c>
       <c r="J49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>800</v>
-      </c>
-      <c r="L49" s="3">
-        <v>700</v>
       </c>
       <c r="M49" s="3">
         <v>700</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3">
+        <v>700</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
@@ -2592,8 +2703,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2642,8 +2756,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2692,19 +2809,22 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>200</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
@@ -2719,16 +2839,16 @@
         <v>200</v>
       </c>
       <c r="K52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
@@ -2742,8 +2862,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2792,44 +2915,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>135300</v>
+      </c>
+      <c r="E54" s="3">
         <v>118100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>125700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>118700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>119300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>98800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>105000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>96800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>95100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>39100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>41400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2842,8 +2968,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2862,8 +2991,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2882,44 +3012,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E57" s="3">
         <v>17400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12700</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,8 +3063,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2967,8 +3101,8 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
@@ -2982,44 +3116,47 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E59" s="3">
         <v>14900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3032,44 +3169,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E60" s="3">
         <v>32300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>32400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>31800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>27100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>27400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>24600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>25100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16700</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3082,8 +3222,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3112,11 +3255,11 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>1500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3132,44 +3275,47 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E62" s="3">
         <v>3200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1600</v>
       </c>
       <c r="I62" s="3">
         <v>1600</v>
       </c>
       <c r="J62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3182,8 +3328,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3232,8 +3381,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3282,8 +3434,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3332,44 +3487,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35500</v>
+        <v>53500</v>
       </c>
       <c r="E66" s="3">
         <v>35500</v>
       </c>
       <c r="F66" s="3">
+        <v>35500</v>
+      </c>
+      <c r="G66" s="3">
         <v>34300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>28700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>29000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>26200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>26500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3382,8 +3540,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3402,8 +3563,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3452,8 +3614,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3502,8 +3667,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3552,8 +3720,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3602,44 +3773,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-87600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-86500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-78200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-83600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-76800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-72100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-63000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-71400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-68900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-61900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-56300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3652,8 +3826,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3702,8 +3879,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3752,8 +3932,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3802,44 +3985,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E76" s="3">
         <v>82600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>90200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>84400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>90600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>69700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>78800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>70300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>72200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3852,8 +4038,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3902,113 +4091,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44045</v>
+      </c>
+      <c r="E80" s="2">
         <v>43954</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43863</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43772</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43590</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43499</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43317</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43226</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43037</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42946</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42582</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-33700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6300</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4027,58 +4225,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E83" s="3">
         <v>1600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>800</v>
-      </c>
-      <c r="L83" s="3">
-        <v>700</v>
       </c>
       <c r="M83" s="3">
         <v>700</v>
       </c>
       <c r="N83" s="3">
+        <v>700</v>
+      </c>
+      <c r="O83" s="3">
         <v>800</v>
-      </c>
-      <c r="O83" s="3">
-        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
       </c>
       <c r="Q83" s="3">
+        <v>300</v>
+      </c>
+      <c r="R83" s="3">
         <v>1200</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4127,8 +4329,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4177,8 +4382,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4227,8 +4435,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4277,8 +4488,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4327,58 +4541,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>25200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6300</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4397,58 +4617,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1400</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4497,8 +4721,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4547,58 +4774,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1400</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-2300</v>
       </c>
       <c r="O94" s="3">
         <v>-2300</v>
       </c>
       <c r="P94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1400</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4617,8 +4850,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4667,8 +4901,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4717,8 +4954,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4767,8 +5007,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4817,58 +5060,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>25400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>57400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>8400</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4917,54 +5166,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>20600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-16300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>46300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>LOVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,246 +665,258 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44136</v>
+      </c>
+      <c r="E7" s="2">
         <v>44045</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43954</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43863</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43772</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43590</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43499</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43317</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43226</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43037</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42946</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42582</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>74700</v>
+      </c>
+      <c r="E8" s="3">
         <v>61900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>54400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>92200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>52100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>48100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>41000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>64200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>41700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>39000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>24400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>17600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>30500</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E9" s="3">
         <v>30900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>27100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>47000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>25800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>23900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>20000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>28700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14700</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E10" s="3">
         <v>31000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>27300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>45200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>26300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>24200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>21000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>35500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>22900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>22900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>13700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>15800</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -977,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1030,8 +1046,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,50 +1102,53 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E15" s="3">
         <v>1500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>700</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3">
         <v>800</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1136,8 +1158,11 @@
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1154,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E17" s="3">
         <v>63000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>62800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>86800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>59000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>53100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>50300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>55900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>44400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>40200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>32400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>36500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>23100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>36500</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6000</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1281,8 +1313,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1293,13 +1326,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
@@ -1311,10 +1344,10 @@
         <v>200</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
@@ -1323,72 +1356,78 @@
         <v>-100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-8000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4800</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1435,66 +1474,72 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6300</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1534,8 +1579,8 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
@@ -1546,8 +1591,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1599,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6300</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-33700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6300</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1758,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1811,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1864,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1917,8 +1983,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1929,13 +1998,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
@@ -1947,10 +2016,10 @@
         <v>-200</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>100</v>
@@ -1959,72 +2028,78 @@
         <v>100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-33700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6300</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2076,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-33700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6300</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44136</v>
+      </c>
+      <c r="E38" s="2">
         <v>44045</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43954</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43863</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43772</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43590</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43499</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43317</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43226</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43037</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42946</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42582</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2208,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2229,47 +2314,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E41" s="3">
         <v>54800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>45500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>48500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>27900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>44200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>35700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>49100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>44700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>48200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2282,8 +2368,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2335,47 +2424,50 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E43" s="3">
         <v>6200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2800</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,47 +2480,50 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E44" s="3">
         <v>41000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>33400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>36400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>50200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>40700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>30900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>26200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>24600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>20200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>11600</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2441,47 +2536,50 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E45" s="3">
         <v>5700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6300</v>
-      </c>
-      <c r="L45" s="3">
-        <v>5800</v>
       </c>
       <c r="M45" s="3">
         <v>5800</v>
       </c>
       <c r="N45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="O45" s="3">
         <v>6100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2494,47 +2592,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>123500</v>
+      </c>
+      <c r="E46" s="3">
         <v>107800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>91900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>100200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>95400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>97500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>78000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>85100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>78500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>78300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>29700</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2547,8 +2648,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2600,47 +2704,50 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E48" s="3">
         <v>25700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>24400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>23800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>21800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>20400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>19500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>18600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2653,46 +2760,49 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1100</v>
       </c>
       <c r="J49" s="3">
         <v>1100</v>
       </c>
       <c r="K49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L49" s="3">
         <v>1000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>800</v>
-      </c>
-      <c r="M49" s="3">
-        <v>700</v>
       </c>
       <c r="N49" s="3">
         <v>700</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
+      <c r="O49" s="3">
+        <v>700</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
@@ -2706,8 +2816,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2759,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2812,8 +2928,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2821,13 +2940,13 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>200</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
@@ -2842,16 +2961,16 @@
         <v>200</v>
       </c>
       <c r="L52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
@@ -2865,8 +2984,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2918,47 +3040,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>151100</v>
+      </c>
+      <c r="E54" s="3">
         <v>135300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>118100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>125700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>118700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>119300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>98800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>105000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>96800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>95100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>39100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>41400</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2971,8 +3096,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2992,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3013,47 +3142,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E57" s="3">
         <v>24500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12700</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3066,8 +3196,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3104,8 +3237,8 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
@@ -3119,47 +3252,50 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E59" s="3">
         <v>23600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4000</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3172,47 +3308,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E60" s="3">
         <v>48000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>32300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>32400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>31800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>27100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>27400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>24600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>25100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16700</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3225,8 +3364,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3258,11 +3400,11 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3278,47 +3420,50 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E62" s="3">
         <v>5500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1700</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1600</v>
       </c>
       <c r="J62" s="3">
         <v>1600</v>
       </c>
       <c r="K62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L62" s="3">
         <v>1400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3331,8 +3476,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3384,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3437,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3490,47 +3644,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E66" s="3">
         <v>53500</v>
-      </c>
-      <c r="E66" s="3">
-        <v>35500</v>
       </c>
       <c r="F66" s="3">
         <v>35500</v>
       </c>
       <c r="G66" s="3">
+        <v>35500</v>
+      </c>
+      <c r="H66" s="3">
         <v>34300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>28700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>29000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>26200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17800</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3543,8 +3700,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3564,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3617,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3670,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3723,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3776,47 +3946,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-85100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-87600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-86500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-78200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-83600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-76800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-72100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-63000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-71400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-68900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-61900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-56300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3829,8 +4002,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3882,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3935,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3988,47 +4170,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>85300</v>
+      </c>
+      <c r="E76" s="3">
         <v>81800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>82600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>90200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>84400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>90600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>69700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>78800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>70300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>72200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>23600</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4041,8 +4226,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4094,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44136</v>
+      </c>
+      <c r="E80" s="2">
         <v>44045</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43954</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43863</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43772</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43590</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43499</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43317</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43226</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43037</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42946</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42582</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-33700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6300</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4226,61 +4423,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E83" s="3">
         <v>1500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>800</v>
-      </c>
-      <c r="M83" s="3">
-        <v>700</v>
       </c>
       <c r="N83" s="3">
         <v>700</v>
       </c>
       <c r="O83" s="3">
+        <v>700</v>
+      </c>
+      <c r="P83" s="3">
         <v>800</v>
-      </c>
-      <c r="P83" s="3">
-        <v>300</v>
       </c>
       <c r="Q83" s="3">
         <v>300</v>
       </c>
       <c r="R83" s="3">
+        <v>300</v>
+      </c>
+      <c r="S83" s="3">
         <v>1200</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4332,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4385,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4438,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4491,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4544,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E89" s="3">
         <v>12600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>25200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6300</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4618,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1400</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4724,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4777,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1400</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-2300</v>
       </c>
       <c r="P94" s="3">
         <v>-2300</v>
       </c>
       <c r="Q94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="R94" s="3">
         <v>-800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1400</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4851,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4904,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4957,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5010,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5063,61 +5305,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>25400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>57400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>7900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>8400</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5169,57 +5417,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E102" s="3">
         <v>9400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>20600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-16300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-13400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>46300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>LOVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,271 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
         <v>44136</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44045</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43954</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43863</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43772</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43681</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43590</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43499</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43408</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43317</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43226</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43135</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43037</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42946</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42582</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>129700</v>
+      </c>
+      <c r="E8" s="3">
         <v>74700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>61900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>54400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>92200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>52100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>48100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>41000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>64200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>41700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>39000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>24400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>17600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>30500</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E9" s="3">
         <v>33400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>30900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>27100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>47000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>25800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>23900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>20000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>28700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>14700</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E10" s="3">
         <v>41300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>31000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>27300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>45200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>26300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>24200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>21000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>35500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>22900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>22900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>13700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>15800</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +950,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -993,8 +1007,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,31 +1066,34 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1105,53 +1125,56 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E15" s="3">
         <v>1900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>700</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3">
         <v>800</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1161,8 +1184,11 @@
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1206,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>107900</v>
+      </c>
+      <c r="E17" s="3">
         <v>72200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>63000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>62800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>86800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>59000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>53100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>50300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>55900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>44400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>40200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>32400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>36500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>26500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>23100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>20800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>36500</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E18" s="3">
         <v>2500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6000</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,13 +1347,14 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1329,13 +1363,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
@@ -1347,10 +1381,10 @@
         <v>200</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>-100</v>
@@ -1359,75 +1393,81 @@
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E21" s="3">
         <v>4300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4800</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1477,69 +1517,75 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E23" s="3">
         <v>2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6300</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1582,8 +1628,8 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
@@ -1594,8 +1640,11 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1699,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E26" s="3">
         <v>2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6300</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E27" s="3">
         <v>2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-33700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6300</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1876,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1874,8 +1935,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1994,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,13 +2053,16 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2001,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
@@ -2019,10 +2089,10 @@
         <v>-200</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>100</v>
@@ -2031,75 +2101,81 @@
         <v>100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E33" s="3">
         <v>2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-33700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6300</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2230,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E35" s="3">
         <v>2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-33700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6300</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
         <v>44136</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44045</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43954</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43863</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43772</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43681</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43590</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43499</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43408</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43317</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43226</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43135</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43037</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42946</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42582</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2378,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,50 +2401,51 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>78300</v>
+      </c>
+      <c r="E41" s="3">
         <v>47700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>54800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>45500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>48500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>27900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>44200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>35700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>49100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>44700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>48200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2458,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,50 +2517,53 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E43" s="3">
         <v>7200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2800</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2483,50 +2576,53 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E44" s="3">
         <v>57800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>41000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>33400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>36400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>50200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>40700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>30900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>26200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>24600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>20200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>13900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>11600</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,50 +2635,53 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E45" s="3">
         <v>10900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6300</v>
-      </c>
-      <c r="M45" s="3">
-        <v>5800</v>
       </c>
       <c r="N45" s="3">
         <v>5800</v>
       </c>
       <c r="O45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="P45" s="3">
         <v>6100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2595,50 +2694,53 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>143400</v>
+      </c>
+      <c r="E46" s="3">
         <v>123500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>107800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>91900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>100200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>95400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>97500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>78000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>85100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>78500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>78300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>24900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>29700</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2753,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2707,8 +2812,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2716,41 +2824,41 @@
         <v>25900</v>
       </c>
       <c r="E48" s="3">
+        <v>25900</v>
+      </c>
+      <c r="F48" s="3">
         <v>25700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>24400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>23800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>21800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>20400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>19500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2763,49 +2871,52 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1100</v>
       </c>
       <c r="K49" s="3">
         <v>1100</v>
       </c>
       <c r="L49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M49" s="3">
         <v>1000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>800</v>
-      </c>
-      <c r="N49" s="3">
-        <v>700</v>
       </c>
       <c r="O49" s="3">
         <v>700</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
+      <c r="P49" s="3">
+        <v>700</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
@@ -2819,8 +2930,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2989,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,8 +3048,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2943,13 +3063,13 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>200</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
@@ -2964,16 +3084,16 @@
         <v>200</v>
       </c>
       <c r="M52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N52" s="3">
         <v>300</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
@@ -2987,8 +3107,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,50 +3166,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E54" s="3">
         <v>151100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>135300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>118100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>125700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>118700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>119300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>98800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>105000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>96800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>95100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>39100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>41400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3099,8 +3225,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3250,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,50 +3273,51 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E57" s="3">
         <v>25200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>24500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12700</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3199,8 +3330,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3240,8 +3374,8 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
@@ -3255,50 +3389,53 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E59" s="3">
         <v>34300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3311,50 +3448,53 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E60" s="3">
         <v>59500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>48000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>32300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>32400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>31800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>27100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>27400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>25100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16700</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3367,8 +3507,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3403,11 +3546,11 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>1500</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3423,50 +3566,53 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E62" s="3">
         <v>6400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1700</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1600</v>
       </c>
       <c r="K62" s="3">
         <v>1600</v>
       </c>
       <c r="L62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M62" s="3">
         <v>1400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3479,8 +3625,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3684,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3743,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,50 +3802,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E66" s="3">
         <v>65900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>53500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>35500</v>
       </c>
       <c r="G66" s="3">
         <v>35500</v>
       </c>
       <c r="H66" s="3">
+        <v>35500</v>
+      </c>
+      <c r="I66" s="3">
         <v>34300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>28700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>29000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17800</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3703,8 +3861,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3886,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3943,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4002,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4061,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,50 +4120,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-85100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-87600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-86500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-78200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-83600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-76800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-72100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-63000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-71400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-68900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-61900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-56300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4005,8 +4179,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4238,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4297,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,50 +4356,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>107900</v>
+      </c>
+      <c r="E76" s="3">
         <v>85300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>81800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>82600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>90200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>84400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>90600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>69700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>78800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>70300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>72200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>23600</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4229,8 +4415,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4474,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
         <v>44136</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44045</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43954</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43863</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43772</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43681</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43590</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43499</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43408</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43317</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43226</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43135</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43037</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42946</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42582</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E81" s="3">
         <v>2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-33700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6300</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,64 +4622,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>800</v>
-      </c>
-      <c r="N83" s="3">
-        <v>700</v>
       </c>
       <c r="O83" s="3">
         <v>700</v>
       </c>
       <c r="P83" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q83" s="3">
         <v>800</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>300</v>
       </c>
       <c r="S83" s="3">
+        <v>300</v>
+      </c>
+      <c r="T83" s="3">
         <v>1200</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4738,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4797,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4856,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4915,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4974,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>25200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-14900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6300</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5058,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1400</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5174,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,8 +5233,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5015,55 +5245,58 @@
         <v>-1900</v>
       </c>
       <c r="E94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1400</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-2300</v>
       </c>
       <c r="Q94" s="3">
         <v>-2300</v>
       </c>
       <c r="R94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="S94" s="3">
         <v>-800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1400</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5317,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5374,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5433,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5492,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,64 +5551,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-900</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>25400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>57400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>7900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>8400</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,60 +5669,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>20600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-16300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-13400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>46300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>700</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>LOVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,271 +665,284 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44318</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44136</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44045</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43954</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43863</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43772</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43681</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43590</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43499</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43408</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43317</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43226</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43135</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43037</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42946</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42582</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>82900</v>
+      </c>
+      <c r="E8" s="3">
         <v>129700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>74700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>61900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>54400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>92200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>52100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>48100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>41000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>64200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>41700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>33200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>26800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>39000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>24400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>20700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>17600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>30500</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E9" s="3">
         <v>54600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>33400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>30900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>27100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>47000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>25800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>23900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>20000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>28700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>18800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>14700</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E10" s="3">
         <v>75100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>41300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>31000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>27300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>45200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>26300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>24200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>21000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>35500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>22900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>17800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>14700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>22900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>13700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>11500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>15800</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -951,8 +964,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1010,8 +1024,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,17 +1086,20 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1095,8 +1115,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1128,56 +1148,59 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E15" s="3">
         <v>1600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>700</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="3">
         <v>800</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1187,8 +1210,11 @@
       <c r="U15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,126 +1233,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E17" s="3">
         <v>107900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>72200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>63000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>62800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>86800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>59000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>53100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>50300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>55900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>44400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>40200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>32400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>36500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>26500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>23100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>20800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>36500</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E18" s="3">
         <v>21800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-6000</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,17 +1381,18 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1366,13 +1400,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>200</v>
@@ -1384,10 +1418,10 @@
         <v>200</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
@@ -1396,78 +1430,84 @@
         <v>-100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E21" s="3">
         <v>23300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4800</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1520,77 +1560,83 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>21700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6300</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1631,8 +1677,8 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
@@ -1643,8 +1689,11 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,126 +1751,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>21700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6300</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>21700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-33700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6300</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,8 +1937,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1938,8 +1999,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2061,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,17 +2123,20 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2074,13 +2144,13 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-200</v>
@@ -2092,10 +2162,10 @@
         <v>-200</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
@@ -2104,78 +2174,84 @@
         <v>100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>21700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-33700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6300</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,131 +2309,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>21700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-33700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6300</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44318</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44136</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44045</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43954</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43863</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43772</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43681</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43590</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43499</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43408</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43317</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43226</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43135</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43037</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42946</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42582</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2464,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,53 +2488,54 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E41" s="3">
         <v>78300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>47700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>54800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>45500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>48500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>27900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>44200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>35700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>49100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>44700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>48200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9200</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2461,8 +2548,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2520,53 +2610,56 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E43" s="3">
         <v>4500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2800</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2579,53 +2672,56 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E44" s="3">
         <v>50400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>57800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>41000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>33400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>36400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>50200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>40700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>30900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>26200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>24600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>20200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>13900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>11600</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2638,53 +2734,56 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E45" s="3">
         <v>10100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6300</v>
-      </c>
-      <c r="N45" s="3">
-        <v>5800</v>
       </c>
       <c r="O45" s="3">
         <v>5800</v>
       </c>
       <c r="P45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="Q45" s="3">
         <v>6100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2697,53 +2796,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>140200</v>
+      </c>
+      <c r="E46" s="3">
         <v>143400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>123500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>107800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>91900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>100200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>95400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>97500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>78000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>85100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>78500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>78300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>24900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>29700</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2756,8 +2858,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2815,53 +2920,56 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25900</v>
+        <v>117600</v>
       </c>
       <c r="E48" s="3">
         <v>25900</v>
       </c>
       <c r="F48" s="3">
+        <v>25900</v>
+      </c>
+      <c r="G48" s="3">
         <v>25700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>24400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>23800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>21800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>20400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2874,52 +2982,55 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1200</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1100</v>
       </c>
       <c r="L49" s="3">
         <v>1100</v>
       </c>
       <c r="M49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N49" s="3">
         <v>1000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>800</v>
-      </c>
-      <c r="O49" s="3">
-        <v>700</v>
       </c>
       <c r="P49" s="3">
         <v>700</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
+      <c r="Q49" s="3">
+        <v>700</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
@@ -2933,8 +3044,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3106,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,8 +3168,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3066,13 +3186,13 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
@@ -3087,16 +3207,16 @@
         <v>200</v>
       </c>
       <c r="N52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
@@ -3110,8 +3230,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,53 +3292,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>259200</v>
+      </c>
+      <c r="E54" s="3">
         <v>171000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>151100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>135300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>118100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>125700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>118700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>119300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>98800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>105000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>96800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>95100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>39100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>41400</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3228,8 +3354,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3380,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,53 +3404,54 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E57" s="3">
         <v>24300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>25200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>24500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>19900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12700</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3333,8 +3464,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3377,8 +3511,8 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
@@ -3392,53 +3526,56 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E59" s="3">
         <v>32000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>34300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>23600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3451,53 +3588,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E60" s="3">
         <v>56300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>59500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>48000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>32300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>32400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>31800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>27100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>25100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16700</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3510,8 +3650,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3549,11 +3692,11 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>1500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3569,53 +3712,56 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E62" s="3">
         <v>6700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1600</v>
       </c>
       <c r="L62" s="3">
         <v>1600</v>
       </c>
       <c r="M62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N62" s="3">
         <v>1400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3628,8 +3774,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3836,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +3898,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,53 +3960,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>148500</v>
+      </c>
+      <c r="E66" s="3">
         <v>63100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>65900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>53500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>35500</v>
       </c>
       <c r="H66" s="3">
         <v>35500</v>
       </c>
       <c r="I66" s="3">
+        <v>35500</v>
+      </c>
+      <c r="J66" s="3">
         <v>34300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>28700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17800</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3864,8 +4022,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4048,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4108,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4170,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,8 +4232,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,53 +4294,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-63400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-85100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-87600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-86500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-78200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-83600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-76800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-72100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-63000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-71400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-68900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-61900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-56300</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4182,8 +4356,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4418,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4480,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,53 +4542,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>110700</v>
+      </c>
+      <c r="E76" s="3">
         <v>107900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>85300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>81800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>82600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>90200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>84400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>90600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>69700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>78800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>70300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>72200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23600</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4418,8 +4604,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,131 +4666,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44318</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44136</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44045</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43954</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43863</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43772</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43681</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43590</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43499</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43408</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43317</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43226</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43135</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43037</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42946</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42582</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>21700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-33700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6300</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,67 +4821,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E83" s="3">
         <v>1600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>800</v>
-      </c>
-      <c r="O83" s="3">
-        <v>700</v>
       </c>
       <c r="P83" s="3">
         <v>700</v>
       </c>
       <c r="Q83" s="3">
+        <v>700</v>
+      </c>
+      <c r="R83" s="3">
         <v>800</v>
-      </c>
-      <c r="R83" s="3">
-        <v>300</v>
       </c>
       <c r="S83" s="3">
         <v>300</v>
       </c>
       <c r="T83" s="3">
+        <v>300</v>
+      </c>
+      <c r="U83" s="3">
         <v>1200</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4943,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5005,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5067,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5129,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,67 +5191,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E89" s="3">
         <v>33600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-14900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6300</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,67 +5279,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1400</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5401,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,67 +5463,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1900</v>
+        <v>-3100</v>
       </c>
       <c r="E94" s="3">
         <v>-1900</v>
       </c>
       <c r="F94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G94" s="3">
         <v>-2900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-2300</v>
       </c>
       <c r="R94" s="3">
         <v>-2300</v>
       </c>
       <c r="S94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="T94" s="3">
         <v>-800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1400</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,8 +5551,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5377,8 +5611,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5673,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5735,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,67 +5797,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>25400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>57400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>7900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>6400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>5300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>8400</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5672,63 +5921,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E102" s="3">
         <v>30700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>20600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-16300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>46300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>700</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>LOVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,284 +665,297 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44409</v>
+      </c>
+      <c r="E7" s="2">
         <v>44318</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44136</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44045</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43954</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43863</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43772</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43681</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43590</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43499</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43408</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43317</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43226</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43135</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43037</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42946</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42582</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>102400</v>
+      </c>
+      <c r="E8" s="3">
         <v>82900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>129700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>74700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>61900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>54400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>92200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>52100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>48100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>41000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>64200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>41700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>33200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>26800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>39000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>24400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>20700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>17600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>30500</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E9" s="3">
         <v>36800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>54600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>33400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>30900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>27100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>47000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>25800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>23900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>20000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>28700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>14700</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E10" s="3">
         <v>46100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>75100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>41300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>31000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>27300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>45200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>26300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>21000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>35500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>22900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>17800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>14700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>22900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>13700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>11500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>9100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>15800</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -965,8 +978,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1027,8 +1041,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1089,20 +1106,23 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1118,8 +1138,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1151,59 +1171,62 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E15" s="3">
         <v>2400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>700</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="3">
         <v>800</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1213,8 +1236,11 @@
       <c r="V15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1234,132 +1260,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>93400</v>
+      </c>
+      <c r="E17" s="3">
         <v>80700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>107900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>72200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>63000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>62800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>86800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>59000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>53100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>50300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>55900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>44400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>40200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>32400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>36500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>26500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>23100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>20800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>36500</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>21800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-6000</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1382,8 +1415,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1391,11 +1425,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1403,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>200</v>
@@ -1421,10 +1455,10 @@
         <v>200</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
@@ -1433,81 +1467,87 @@
         <v>-100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E21" s="3">
         <v>4600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>23300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4800</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1563,84 +1603,90 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-6300</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1680,8 +1726,8 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
@@ -1692,8 +1738,11 @@
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1754,132 +1803,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E26" s="3">
         <v>2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>21700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6300</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E27" s="3">
         <v>2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>21700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-33700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6300</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1940,8 +1998,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2002,8 +2063,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2064,8 +2128,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2126,8 +2193,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2135,11 +2205,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2147,13 +2217,13 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-200</v>
@@ -2165,10 +2235,10 @@
         <v>-200</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
@@ -2177,81 +2247,87 @@
         <v>100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E33" s="3">
         <v>2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>21700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-33700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-6300</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2312,137 +2388,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E35" s="3">
         <v>2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>21700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-33700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-6300</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44409</v>
+      </c>
+      <c r="E38" s="2">
         <v>44318</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44136</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44045</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43954</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43863</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43772</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43681</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43590</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43499</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43408</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43317</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43226</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43135</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43037</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42946</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42582</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2465,8 +2550,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2489,56 +2575,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E41" s="3">
         <v>65700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>78300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>47700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>54800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>45500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>48500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>27900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>44200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>35700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>49100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>44700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>48200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9200</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2551,8 +2638,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2613,56 +2703,59 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E43" s="3">
         <v>6900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2800</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2675,56 +2768,59 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E44" s="3">
         <v>56000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>50400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>57800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>41000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>33400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>36400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>50200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>40700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>30900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>26200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>24600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>20200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>13900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>11600</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,56 +2833,59 @@
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E45" s="3">
         <v>11600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6300</v>
-      </c>
-      <c r="O45" s="3">
-        <v>5800</v>
       </c>
       <c r="P45" s="3">
         <v>5800</v>
       </c>
       <c r="Q45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="R45" s="3">
         <v>6100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2799,56 +2898,59 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>161400</v>
+      </c>
+      <c r="E46" s="3">
         <v>140200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>143400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>123500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>107800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>91900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>100200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>95400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>97500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>78000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>85100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>78500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>78300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>24900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>29700</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2963,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2923,56 +3028,59 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>118400</v>
+      </c>
+      <c r="E48" s="3">
         <v>117600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>25900</v>
       </c>
       <c r="F48" s="3">
         <v>25900</v>
       </c>
       <c r="G48" s="3">
+        <v>25900</v>
+      </c>
+      <c r="H48" s="3">
         <v>25700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>24400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>23800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>21800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2985,8 +3093,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2994,46 +3105,46 @@
         <v>1300</v>
       </c>
       <c r="E49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F49" s="3">
         <v>1700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1200</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1100</v>
       </c>
       <c r="M49" s="3">
         <v>1100</v>
       </c>
       <c r="N49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O49" s="3">
         <v>1000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>800</v>
-      </c>
-      <c r="P49" s="3">
-        <v>700</v>
       </c>
       <c r="Q49" s="3">
         <v>700</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
+      <c r="R49" s="3">
+        <v>700</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
@@ -3047,8 +3158,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3109,8 +3223,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3171,13 +3288,16 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -3189,13 +3309,13 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>200</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
@@ -3210,16 +3330,16 @@
         <v>200</v>
       </c>
       <c r="O52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P52" s="3">
         <v>300</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
@@ -3233,8 +3353,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3295,56 +3418,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>281300</v>
+      </c>
+      <c r="E54" s="3">
         <v>259200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>171000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>151100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>135300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>118100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>125700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>118700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>119300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>98800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>105000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>96800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>95100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>39100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>41400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3357,8 +3483,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3381,8 +3510,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3405,56 +3535,57 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E57" s="3">
         <v>17700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>24300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>25200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>24500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12700</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3467,8 +3598,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3514,8 +3648,8 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
@@ -3529,56 +3663,59 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E59" s="3">
         <v>46000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>32000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3591,56 +3728,59 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>80600</v>
+      </c>
+      <c r="E60" s="3">
         <v>63700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>56300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>59500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>48000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>32300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>32400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>31800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>24600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>25100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>21500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16700</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3653,8 +3793,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3695,11 +3838,11 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1500</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3715,56 +3858,59 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>83700</v>
+      </c>
+      <c r="E62" s="3">
         <v>84700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1700</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1600</v>
       </c>
       <c r="M62" s="3">
         <v>1600</v>
       </c>
       <c r="N62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O62" s="3">
         <v>1400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3777,8 +3923,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3839,8 +3988,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3901,8 +4053,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3963,56 +4118,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>164300</v>
+      </c>
+      <c r="E66" s="3">
         <v>148500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>63100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>65900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>53500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>35500</v>
       </c>
       <c r="I66" s="3">
         <v>35500</v>
       </c>
       <c r="J66" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K66" s="3">
         <v>34300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>28700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>29000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>26500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17800</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4025,8 +4183,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4049,8 +4210,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4111,8 +4273,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4173,8 +4338,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4235,8 +4403,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4297,56 +4468,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-61400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-63400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-85100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-87600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-86500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-78200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-83600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-76800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-72100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-63000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-71400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-68900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-61900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-56300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4359,8 +4533,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4421,8 +4598,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4483,8 +4663,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4545,56 +4728,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>116900</v>
+      </c>
+      <c r="E76" s="3">
         <v>110700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>107900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>85300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>81800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>82600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>90200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>84400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>90600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>69700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>78800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>70300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>72200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23600</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4607,8 +4793,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4669,137 +4858,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44409</v>
+      </c>
+      <c r="E80" s="2">
         <v>44318</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44136</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44045</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43954</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43863</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43772</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43681</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43590</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43499</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43408</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43317</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43226</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43135</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43037</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42946</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42582</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E81" s="3">
         <v>2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>21700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-33700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-6300</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4822,70 +5020,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
         <v>2400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>800</v>
-      </c>
-      <c r="P83" s="3">
-        <v>700</v>
       </c>
       <c r="Q83" s="3">
         <v>700</v>
       </c>
       <c r="R83" s="3">
+        <v>700</v>
+      </c>
+      <c r="S83" s="3">
         <v>800</v>
-      </c>
-      <c r="S83" s="3">
-        <v>300</v>
       </c>
       <c r="T83" s="3">
         <v>300</v>
       </c>
       <c r="U83" s="3">
+        <v>300</v>
+      </c>
+      <c r="V83" s="3">
         <v>1200</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4946,8 +5148,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5008,8 +5213,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5070,8 +5278,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5132,8 +5343,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5194,70 +5408,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>33600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>25200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-14900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6300</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5280,70 +5500,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1400</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5404,8 +5628,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5466,70 +5693,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3100</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-1900</v>
       </c>
       <c r="F94" s="3">
         <v>-1900</v>
       </c>
       <c r="G94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H94" s="3">
         <v>-2900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1400</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-2300</v>
       </c>
       <c r="S94" s="3">
         <v>-2300</v>
       </c>
       <c r="T94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="U94" s="3">
         <v>-800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1400</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5552,8 +5785,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5614,8 +5848,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5676,8 +5913,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5738,8 +5978,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5800,70 +6043,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-900</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>25400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>57400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>7900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>6400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>5300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>8400</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5924,66 +6173,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>30700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>20600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-16300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>46300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>700</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>LOVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,297 +665,310 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44409</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44318</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44136</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44045</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43954</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43863</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43772</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43681</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43590</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43499</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43408</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43317</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43226</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43135</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43037</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42946</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42582</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>116700</v>
+      </c>
+      <c r="E8" s="3">
         <v>102400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>82900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>129700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>74700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>61900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>54400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>92200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>52100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>48100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>41000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>64200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>41700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>33200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>26800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>39000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>24400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>20700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>17600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>30500</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E9" s="3">
         <v>43400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>36800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>54600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>33400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>30900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>27100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>47000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>25800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>23900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>20000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>28700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>18800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>16100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>9200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>14700</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E10" s="3">
         <v>59000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>46100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>75100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>41300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>31000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>27300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>45200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>24200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>21000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>35500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>22900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>17800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>14700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>22900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>13700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>11500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>9100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>15800</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -979,8 +992,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1044,8 +1058,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1109,23 +1126,26 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1141,8 +1161,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1174,62 +1194,65 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E15" s="3">
         <v>1600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>700</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="3">
         <v>800</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1239,8 +1262,11 @@
       <c r="W15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1261,138 +1287,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>113700</v>
+      </c>
+      <c r="E17" s="3">
         <v>93400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>80700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>107900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>72200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>63000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>62800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>86800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>59000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>53100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>50300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>55900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>44400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>40200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>32400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>36500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>26500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>23100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>20800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>36500</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E18" s="3">
         <v>9000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>21800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-6000</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1416,23 +1449,24 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1440,13 +1474,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>200</v>
@@ -1458,10 +1492,10 @@
         <v>200</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
@@ -1470,84 +1504,90 @@
         <v>-100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E21" s="3">
         <v>10600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>23300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4800</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1606,90 +1646,96 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>9000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-6300</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1729,8 +1775,8 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
+      <c r="T24" s="3">
+        <v>0</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
@@ -1741,8 +1787,11 @@
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1806,138 +1855,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E26" s="3">
         <v>8400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>21700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-6300</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E27" s="3">
         <v>8400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>21700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-33700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-6300</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2001,8 +2059,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2066,8 +2127,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2131,8 +2195,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2196,23 +2263,26 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2220,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>-200</v>
@@ -2238,10 +2308,10 @@
         <v>-200</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
@@ -2250,84 +2320,90 @@
         <v>100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E33" s="3">
         <v>8400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>21700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-33700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-6300</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2391,143 +2467,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E35" s="3">
         <v>8400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>21700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-33700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-6300</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44409</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44318</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44136</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44045</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43954</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43863</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43772</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43681</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43590</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43499</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43408</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43317</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43226</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43135</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43037</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42946</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42582</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2551,8 +2636,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2576,59 +2662,60 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E41" s="3">
         <v>68500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>65700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>78300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>47700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>54800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>45500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>48500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>44200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>35700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>49100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>44700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>48200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9200</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2641,8 +2728,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2706,59 +2796,62 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E43" s="3">
         <v>7400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2800</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2771,59 +2864,62 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E44" s="3">
         <v>75000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>56000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>50400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>57800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>41000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>33400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>36400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>50200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>40700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>30900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>26200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>24600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>20200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>13900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>11600</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2836,59 +2932,62 @@
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E45" s="3">
         <v>10600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6300</v>
-      </c>
-      <c r="P45" s="3">
-        <v>5800</v>
       </c>
       <c r="Q45" s="3">
         <v>5800</v>
       </c>
       <c r="R45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="S45" s="3">
         <v>6100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2901,59 +3000,62 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>163600</v>
+      </c>
+      <c r="E46" s="3">
         <v>161400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>140200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>143400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>123500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>107800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>91900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>100200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>95400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>97500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>78000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>85100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>78500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>78300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>24900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>29700</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2966,8 +3068,11 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3031,59 +3136,62 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>127700</v>
+      </c>
+      <c r="E48" s="3">
         <v>118400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>117600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>25900</v>
       </c>
       <c r="G48" s="3">
         <v>25900</v>
       </c>
       <c r="H48" s="3">
+        <v>25900</v>
+      </c>
+      <c r="I48" s="3">
         <v>25700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>24400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>23800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11000</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,58 +3204,61 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="E49" s="3">
         <v>1300</v>
       </c>
       <c r="F49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G49" s="3">
         <v>1700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1200</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1100</v>
       </c>
       <c r="N49" s="3">
         <v>1100</v>
       </c>
       <c r="O49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P49" s="3">
         <v>1000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>800</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>700</v>
       </c>
       <c r="R49" s="3">
         <v>700</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
+      <c r="S49" s="3">
+        <v>700</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
@@ -3161,8 +3272,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3226,8 +3340,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3291,8 +3408,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3300,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -3312,13 +3432,13 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
+        <v>100</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>200</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
@@ -3333,16 +3453,16 @@
         <v>200</v>
       </c>
       <c r="P52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q52" s="3">
         <v>300</v>
       </c>
       <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
@@ -3356,8 +3476,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3421,59 +3544,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>292800</v>
+      </c>
+      <c r="E54" s="3">
         <v>281300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>259200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>171000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>151100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>135300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>118100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>125700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>118700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>119300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>98800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>105000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>96800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>95100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>39100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>41400</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3486,8 +3612,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3511,8 +3640,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3536,59 +3666,60 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E57" s="3">
         <v>25900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>24300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>25200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>24500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12700</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3601,8 +3732,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3651,8 +3785,8 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
+      <c r="S58" s="3">
+        <v>0</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
@@ -3666,59 +3800,62 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E59" s="3">
         <v>54700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>46000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>32000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>34300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4000</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3731,59 +3868,62 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>81600</v>
+      </c>
+      <c r="E60" s="3">
         <v>80600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>63700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>56300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>59500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>48000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>32300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>32400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>31800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>27400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>24600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>25100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>21500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16700</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3796,8 +3936,11 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3841,11 +3984,11 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>1500</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3861,59 +4004,62 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E62" s="3">
         <v>83700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>84700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1700</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1600</v>
       </c>
       <c r="N62" s="3">
         <v>1600</v>
       </c>
       <c r="O62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P62" s="3">
         <v>1400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3926,8 +4072,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3991,8 +4140,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4056,8 +4208,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4121,59 +4276,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>172200</v>
+      </c>
+      <c r="E66" s="3">
         <v>164300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>148500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>63100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>65900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>53500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>35500</v>
       </c>
       <c r="J66" s="3">
         <v>35500</v>
       </c>
       <c r="K66" s="3">
+        <v>35500</v>
+      </c>
+      <c r="L66" s="3">
         <v>34300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>28700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>29000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>26200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>26500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17800</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4186,8 +4344,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4211,8 +4372,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4276,8 +4438,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4341,8 +4506,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4406,8 +4574,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4471,59 +4642,62 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-52900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-61400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-63400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-85100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-87600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-86500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-78200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-83600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-76800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-72100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-63000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-71400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-68900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-61900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-56300</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4536,8 +4710,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4601,8 +4778,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4666,8 +4846,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4731,59 +4914,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>120600</v>
+      </c>
+      <c r="E76" s="3">
         <v>116900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>110700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>107900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>85300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>81800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>82600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>90200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>84400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>90600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>69700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>78800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>70300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>72200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>23600</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4796,8 +4982,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4861,143 +5050,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44409</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44318</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44136</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44045</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43954</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43863</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43772</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43681</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43590</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43499</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43408</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43317</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43226</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43135</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43037</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42946</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42582</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E81" s="3">
         <v>8400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>21700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-33700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-6300</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5021,73 +5219,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E83" s="3">
         <v>1600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>800</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>700</v>
       </c>
       <c r="R83" s="3">
         <v>700</v>
       </c>
       <c r="S83" s="3">
+        <v>700</v>
+      </c>
+      <c r="T83" s="3">
         <v>800</v>
-      </c>
-      <c r="T83" s="3">
-        <v>300</v>
       </c>
       <c r="U83" s="3">
         <v>300</v>
       </c>
       <c r="V83" s="3">
+        <v>300</v>
+      </c>
+      <c r="W83" s="3">
         <v>1200</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5151,8 +5353,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5216,8 +5421,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5281,8 +5489,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5346,8 +5557,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5411,73 +5625,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E89" s="3">
         <v>10400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>33600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>25200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-14900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-6300</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5501,8 +5721,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5510,64 +5731,67 @@
         <v>-4200</v>
       </c>
       <c r="E91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1400</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5631,8 +5855,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5696,73 +5923,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-1900</v>
       </c>
       <c r="G94" s="3">
         <v>-1900</v>
       </c>
       <c r="H94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I94" s="3">
         <v>-2900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1400</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-2300</v>
       </c>
       <c r="T94" s="3">
         <v>-2300</v>
       </c>
       <c r="U94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="V94" s="3">
         <v>-800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1400</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5786,8 +6019,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5851,8 +6085,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5916,8 +6153,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5981,8 +6221,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6046,73 +6289,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-900</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>25400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>57400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>7900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>6400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>5300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>8400</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6176,69 +6425,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E102" s="3">
         <v>2700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>30700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>20600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-16300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>46300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>700</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>LOVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,310 +665,323 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44591</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44409</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44318</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44136</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44045</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43954</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43863</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43772</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43681</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43590</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43499</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43408</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43317</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43226</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43135</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43037</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42946</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42582</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>196200</v>
+      </c>
+      <c r="E8" s="3">
         <v>116700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>102400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>82900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>129700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>74700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>61900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>54400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>92200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>52100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>48100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>41000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>64200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>41700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>33200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>26800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>39000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>24400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>20700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>17600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>30500</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>86600</v>
+      </c>
+      <c r="E9" s="3">
         <v>58100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>43400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>36800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>54600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>33400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>30900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>27100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>47000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>25800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>23900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>20000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>28700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>18800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>16100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>9200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>14700</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>109600</v>
+      </c>
+      <c r="E10" s="3">
         <v>58600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>59000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>46100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>75100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>41300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>31000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>27300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>45200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>26300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>24200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>21000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>35500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>22900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>17800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>14700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>22900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>13700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>11500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>9100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>15800</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -993,8 +1006,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1061,8 +1075,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1129,8 +1146,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1138,17 +1158,17 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1164,8 +1184,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1197,65 +1217,68 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E15" s="3">
         <v>1700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>700</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" s="3">
         <v>800</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,8 +1288,11 @@
       <c r="X15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1288,144 +1314,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E17" s="3">
         <v>113700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>93400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>80700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>107900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>72200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>63000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>62800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>86800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>59000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>53100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>50300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>55900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>44400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>40200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>32400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>36500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>26500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>23100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>20800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>36500</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E18" s="3">
         <v>3000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>21800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-6000</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1450,26 +1483,27 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1477,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
@@ -1495,10 +1529,10 @@
         <v>200</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>-100</v>
@@ -1507,87 +1541,93 @@
         <v>-100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E21" s="3">
         <v>4700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>23300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-8000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-6200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-4800</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1649,96 +1689,102 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
         <v>300</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E23" s="3">
         <v>2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-6300</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1778,8 +1824,8 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
+      <c r="U24" s="3">
+        <v>0</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
@@ -1790,8 +1836,11 @@
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1858,144 +1907,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E26" s="3">
         <v>2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>21700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-6300</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E27" s="3">
         <v>2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>21700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-33700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-6300</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2062,8 +2120,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2130,8 +2191,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2198,8 +2262,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2266,26 +2333,29 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2293,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
@@ -2311,10 +2381,10 @@
         <v>-200</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>100</v>
@@ -2323,87 +2393,93 @@
         <v>100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E33" s="3">
         <v>2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>21700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-33700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-6300</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2470,149 +2546,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E35" s="3">
         <v>2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>21700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-33700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-6300</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44591</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44409</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44318</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44136</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44045</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43954</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43863</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43772</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43681</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43590</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43499</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43408</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43317</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43226</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43135</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43037</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42946</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42582</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2637,8 +2722,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2663,62 +2749,63 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E41" s="3">
         <v>47900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>68500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>65700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>78300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>47700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>54800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>45500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>48500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>27900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>44200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>35700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>49100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>44700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>48200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9200</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,8 +2818,11 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2799,62 +2889,65 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E43" s="3">
         <v>9800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2800</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2867,62 +2960,65 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>108500</v>
+      </c>
+      <c r="E44" s="3">
         <v>94500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>75000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>56000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>50400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>57800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>41000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>33400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>36400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>50200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>40700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>30900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>26200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>24600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>20200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>13900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>11600</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,62 +3031,65 @@
       <c r="X44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E45" s="3">
         <v>11400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6300</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>5800</v>
       </c>
       <c r="R45" s="3">
         <v>5800</v>
       </c>
       <c r="S45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="T45" s="3">
         <v>6100</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3003,62 +3102,65 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>225200</v>
+      </c>
+      <c r="E46" s="3">
         <v>163600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>161400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>140200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>143400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>123500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>107800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>91900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>100200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>95400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>97500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>78000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>85100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>78500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>78300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>24900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>29700</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3071,8 +3173,11 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3139,62 +3244,65 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E48" s="3">
         <v>127700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>118400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>117600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>25900</v>
       </c>
       <c r="H48" s="3">
         <v>25900</v>
       </c>
       <c r="I48" s="3">
+        <v>25900</v>
+      </c>
+      <c r="J48" s="3">
         <v>25700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>24400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11000</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3207,61 +3315,64 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1500</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1300</v>
       </c>
       <c r="F49" s="3">
         <v>1300</v>
       </c>
       <c r="G49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H49" s="3">
         <v>1700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1200</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1100</v>
       </c>
       <c r="O49" s="3">
         <v>1100</v>
       </c>
       <c r="P49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>800</v>
-      </c>
-      <c r="R49" s="3">
-        <v>700</v>
       </c>
       <c r="S49" s="3">
         <v>700</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
+      <c r="T49" s="3">
+        <v>700</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
@@ -3275,8 +3386,11 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3343,8 +3457,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3411,19 +3528,22 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -3435,13 +3555,13 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
+        <v>100</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>200</v>
       </c>
       <c r="M52" s="3">
         <v>200</v>
@@ -3456,16 +3576,16 @@
         <v>200</v>
       </c>
       <c r="Q52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R52" s="3">
         <v>300</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
@@ -3479,8 +3599,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3547,62 +3670,65 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>371600</v>
+      </c>
+      <c r="E54" s="3">
         <v>292800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>281300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>259200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>171000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>151100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>135300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>118100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>125700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>118700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>119300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>98800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>105000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>96800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>95100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>39100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>41400</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3615,8 +3741,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3641,8 +3770,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3667,62 +3797,63 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E57" s="3">
         <v>25400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>25900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>24300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>25200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>24500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12700</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3735,8 +3866,11 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3788,8 +3922,8 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
+      <c r="T58" s="3">
+        <v>0</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
@@ -3803,62 +3937,65 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>85500</v>
+      </c>
+      <c r="E59" s="3">
         <v>56100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>54700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>46000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>32000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>34300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4000</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3871,62 +4008,65 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>118800</v>
+      </c>
+      <c r="E60" s="3">
         <v>81600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>80600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>63700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>56300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>59500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>48000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>32300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>32400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>31800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>27100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>27400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>24600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>25100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>21500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>16700</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3939,8 +4079,11 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3987,11 +4130,11 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>1500</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4007,62 +4150,65 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E62" s="3">
         <v>90700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>83700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>84700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1700</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1600</v>
       </c>
       <c r="O62" s="3">
         <v>1600</v>
       </c>
       <c r="P62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1100</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4075,8 +4221,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4143,8 +4292,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4211,8 +4363,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4279,62 +4434,65 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>215400</v>
+      </c>
+      <c r="E66" s="3">
         <v>172200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>164300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>148500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>63100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>65900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>53500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>35500</v>
       </c>
       <c r="K66" s="3">
         <v>35500</v>
       </c>
       <c r="L66" s="3">
+        <v>35500</v>
+      </c>
+      <c r="M66" s="3">
         <v>34300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>28700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>29000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>26200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>26500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17800</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4347,8 +4505,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4373,8 +4534,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4441,8 +4603,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4509,8 +4674,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4577,8 +4745,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4645,62 +4816,65 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-50200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-52900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-61400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-63400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-85100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-87600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-86500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-78200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-83600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-76800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-72100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-63000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-71400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-68900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-61900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-56300</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4713,8 +4887,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4781,8 +4958,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4849,8 +5029,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4917,62 +5100,65 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>156200</v>
+      </c>
+      <c r="E76" s="3">
         <v>120600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>116900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>110700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>107900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>85300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>81800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>82600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>90200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>84400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>90600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>69700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>78800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>70300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>72200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>23600</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4985,8 +5171,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5053,149 +5242,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44591</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44409</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44318</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44136</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44045</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43954</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43863</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43772</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43681</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43590</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43499</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43408</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43317</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43226</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43135</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43037</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42946</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42582</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E81" s="3">
         <v>2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>21700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-33700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-6300</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5220,76 +5418,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E83" s="3">
         <v>1700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>800</v>
-      </c>
-      <c r="R83" s="3">
-        <v>700</v>
       </c>
       <c r="S83" s="3">
         <v>700</v>
       </c>
       <c r="T83" s="3">
+        <v>700</v>
+      </c>
+      <c r="U83" s="3">
         <v>800</v>
-      </c>
-      <c r="U83" s="3">
-        <v>300</v>
       </c>
       <c r="V83" s="3">
         <v>300</v>
       </c>
       <c r="W83" s="3">
+        <v>300</v>
+      </c>
+      <c r="X83" s="3">
         <v>1200</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5356,8 +5558,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5424,8 +5629,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5492,8 +5700,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5560,8 +5771,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5628,76 +5842,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-15900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>33600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>25200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-14900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-6300</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5722,76 +5942,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4200</v>
+        <v>-4500</v>
       </c>
       <c r="E91" s="3">
         <v>-4200</v>
       </c>
       <c r="F91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-2900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1400</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5858,8 +6082,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5926,76 +6153,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-1900</v>
       </c>
       <c r="H94" s="3">
         <v>-1900</v>
       </c>
       <c r="I94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J94" s="3">
         <v>-2900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1400</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-2300</v>
       </c>
       <c r="U94" s="3">
         <v>-2300</v>
       </c>
       <c r="V94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="W94" s="3">
         <v>-800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1400</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6020,8 +6253,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6088,8 +6322,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6156,8 +6393,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6224,8 +6464,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6292,76 +6535,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>25400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>57400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>7900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>6400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>5300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>8400</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6428,72 +6677,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-20600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>30700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>20600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-16300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>46300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-7200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>700</v>
       </c>
-      <c r="X102" s="3" t="s">
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>LOVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,323 +665,336 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E7" s="2">
         <v>44591</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44409</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44318</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44136</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44045</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43954</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43863</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43772</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43681</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43590</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43499</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43408</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43317</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43226</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43135</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43037</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42946</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42582</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>129400</v>
+      </c>
+      <c r="E8" s="3">
         <v>196200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>116700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>102400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>82900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>129700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>74700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>61900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>54400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>92200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>52100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>48100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>41000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>64200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>41700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>33200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>26800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>39000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>24400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>20700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>17600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>30500</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E9" s="3">
         <v>86600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>58100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>43400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>36800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>54600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>33400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>30900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>27100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>47000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>25800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>23900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>20000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>28700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>18800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>15400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>16100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>10700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>9200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>14700</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E10" s="3">
         <v>109600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>58600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>59000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>46100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>75100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>41300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>31000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>27300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>45200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>26300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>24200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>21000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>35500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>22900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>17800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>14700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>22900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>13700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>11500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>9100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>15800</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1007,8 +1020,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1078,8 +1092,11 @@
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1149,29 +1166,32 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1187,8 +1207,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1220,68 +1240,71 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E15" s="3">
         <v>2100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>700</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" s="3">
         <v>800</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1291,8 +1314,11 @@
       <c r="Y15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1315,150 +1341,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>126700</v>
+      </c>
+      <c r="E17" s="3">
         <v>172000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>113700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>93400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>80700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>107900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>72200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>63000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>62800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>86800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>59000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>53100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>50300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>55900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>44400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>40200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>32400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>36500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>26500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>23100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>20800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>36500</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E18" s="3">
         <v>24200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>21800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1484,29 +1517,30 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1514,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>200</v>
@@ -1532,10 +1566,10 @@
         <v>200</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>-100</v>
@@ -1544,90 +1578,96 @@
         <v>-100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E21" s="3">
         <v>26300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>23300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-8000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-6200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-4800</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1692,102 +1732,108 @@
         <v>0</v>
       </c>
       <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
         <v>300</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E23" s="3">
         <v>24200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-8500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1827,8 +1873,8 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
+      <c r="V24" s="3">
+        <v>0</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
@@ -1839,8 +1885,11 @@
       <c r="Y24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1910,150 +1959,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>32600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>21700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>32600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-33700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2123,8 +2181,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2194,8 +2255,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2265,8 +2329,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2336,29 +2403,32 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2366,13 +2436,13 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>-200</v>
@@ -2384,10 +2454,10 @@
         <v>-200</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>100</v>
@@ -2396,90 +2466,96 @@
         <v>100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>32600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-33700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2549,155 +2625,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>32600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-33700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E38" s="2">
         <v>44591</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44409</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44318</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44136</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44045</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43954</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43863</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43772</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43681</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43590</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43499</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43408</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43317</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43226</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43135</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43037</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42946</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42582</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2723,8 +2808,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2750,65 +2836,66 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E41" s="3">
         <v>92400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>47900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>68500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>65700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>78300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>47700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>54800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>45500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>48500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>27900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>44200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>35700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>49100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>44700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>48200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9200</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2821,8 +2908,11 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2892,65 +2982,68 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E43" s="3">
         <v>8500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2800</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2963,65 +3056,68 @@
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E44" s="3">
         <v>108500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>94500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>75000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>56000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>50400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>57800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>41000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>33400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>36400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>50200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>40700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>30900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>26200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>24600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>20200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>13900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>11600</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3034,65 +3130,68 @@
       <c r="Y44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E45" s="3">
         <v>15700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6300</v>
-      </c>
-      <c r="R45" s="3">
-        <v>5800</v>
       </c>
       <c r="S45" s="3">
         <v>5800</v>
       </c>
       <c r="T45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="U45" s="3">
         <v>6100</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3105,65 +3204,68 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>210200</v>
+      </c>
+      <c r="E46" s="3">
         <v>225200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>163600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>161400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>140200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>143400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>123500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>107800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>91900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>100200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>95400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>97500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>78000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>85100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>78500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>78300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>24900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>29700</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,8 +3278,11 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3247,65 +3352,68 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>145400</v>
+      </c>
+      <c r="E48" s="3">
         <v>135000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>127700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>118400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>117600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>25900</v>
       </c>
       <c r="I48" s="3">
         <v>25900</v>
       </c>
       <c r="J48" s="3">
+        <v>25900</v>
+      </c>
+      <c r="K48" s="3">
         <v>25700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>11000</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3318,8 +3426,11 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3327,55 +3438,55 @@
         <v>1600</v>
       </c>
       <c r="E49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F49" s="3">
         <v>1500</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1300</v>
       </c>
       <c r="G49" s="3">
         <v>1300</v>
       </c>
       <c r="H49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I49" s="3">
         <v>1700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1200</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1100</v>
       </c>
       <c r="P49" s="3">
         <v>1100</v>
       </c>
       <c r="Q49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R49" s="3">
         <v>1000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>800</v>
-      </c>
-      <c r="S49" s="3">
-        <v>700</v>
       </c>
       <c r="T49" s="3">
         <v>700</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
+      <c r="U49" s="3">
+        <v>700</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>3</v>
@@ -3389,8 +3500,11 @@
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3460,8 +3574,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3531,22 +3648,25 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E52" s="3">
         <v>9800</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -3558,13 +3678,13 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>200</v>
       </c>
       <c r="N52" s="3">
         <v>200</v>
@@ -3579,16 +3699,16 @@
         <v>200</v>
       </c>
       <c r="R52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S52" s="3">
         <v>300</v>
       </c>
       <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
@@ -3602,8 +3722,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3673,65 +3796,68 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>366600</v>
+      </c>
+      <c r="E54" s="3">
         <v>371600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>292800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>281300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>259200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>171000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>151100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>135300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>118100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>125700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>118700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>119300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>98800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>105000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>96800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>95100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>39100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>41400</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3744,8 +3870,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3771,8 +3900,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3798,65 +3928,66 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E57" s="3">
         <v>33200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>25400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>25900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>24300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>25200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>24500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12700</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +4000,11 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3925,8 +4059,8 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
+      <c r="U58" s="3">
+        <v>0</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>3</v>
@@ -3940,65 +4074,68 @@
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E59" s="3">
         <v>85500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>56100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>54700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>46000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>32000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>34300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4000</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4011,65 +4148,68 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>103900</v>
+      </c>
+      <c r="E60" s="3">
         <v>118800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>81600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>80600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>63700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>56300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>59500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>48000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>32300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>32400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>31800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>27100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>27400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>24600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>25100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>21500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>18200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>16700</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4082,8 +4222,11 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4133,11 +4276,11 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>1500</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4153,65 +4296,68 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>103500</v>
+      </c>
+      <c r="E62" s="3">
         <v>96600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>90700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>83700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>84700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1700</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1600</v>
       </c>
       <c r="P62" s="3">
         <v>1600</v>
       </c>
       <c r="Q62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R62" s="3">
         <v>1400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1100</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4224,8 +4370,11 @@
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4295,8 +4444,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4366,8 +4518,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4437,65 +4592,68 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>207300</v>
+      </c>
+      <c r="E66" s="3">
         <v>215400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>172200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>164300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>148500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>63100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>65900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>53500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>35500</v>
       </c>
       <c r="L66" s="3">
         <v>35500</v>
       </c>
       <c r="M66" s="3">
+        <v>35500</v>
+      </c>
+      <c r="N66" s="3">
         <v>34300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>28700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>29000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>26200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>26500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>22900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17800</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4508,8 +4666,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4535,8 +4696,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4606,8 +4768,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4677,8 +4842,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4748,8 +4916,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4819,65 +4990,68 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-50200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-52900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-61400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-63400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-85100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-87600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-86500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-78200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-83600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-76800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-72100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-63000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-71400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-68900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-61900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-56300</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4890,8 +5064,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4961,8 +5138,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5032,8 +5212,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5103,65 +5286,68 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>159200</v>
+      </c>
+      <c r="E76" s="3">
         <v>156200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>120600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>116900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>110700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>107900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>85300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>81800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>82600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>90200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>84400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>90600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>69700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>78800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>70300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>72200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>23600</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5174,8 +5360,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5245,155 +5434,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44682</v>
+      </c>
+      <c r="E80" s="2">
         <v>44591</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44409</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44318</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44136</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44045</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43954</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43863</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43772</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43681</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43590</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43499</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43408</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43317</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43226</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43135</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43037</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42946</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42582</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>32600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-33700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5419,79 +5617,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E83" s="3">
         <v>2100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>800</v>
-      </c>
-      <c r="S83" s="3">
-        <v>700</v>
       </c>
       <c r="T83" s="3">
         <v>700</v>
       </c>
       <c r="U83" s="3">
+        <v>700</v>
+      </c>
+      <c r="V83" s="3">
         <v>800</v>
-      </c>
-      <c r="V83" s="3">
-        <v>300</v>
       </c>
       <c r="W83" s="3">
         <v>300</v>
       </c>
       <c r="X83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y83" s="3">
         <v>1200</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5561,8 +5763,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5632,8 +5837,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5703,8 +5911,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5774,8 +5985,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5845,79 +6059,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E89" s="3">
         <v>49200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-15900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>33600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>25200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-14900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5943,79 +6163,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4500</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-4200</v>
       </c>
       <c r="F91" s="3">
         <v>-4200</v>
       </c>
       <c r="G91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-2900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6085,8 +6309,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6156,79 +6383,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-1900</v>
       </c>
       <c r="I94" s="3">
         <v>-1900</v>
       </c>
       <c r="J94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1400</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-2300</v>
       </c>
       <c r="V94" s="3">
         <v>-2300</v>
       </c>
       <c r="W94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="X94" s="3">
         <v>-800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6254,8 +6487,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6325,8 +6559,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6396,8 +6633,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6467,8 +6707,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6538,79 +6781,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-900</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>25400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>57400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>7900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>6400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>5300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>8400</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6680,75 +6929,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E102" s="3">
         <v>44500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-20600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-12600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>30700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>20600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-16300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-13400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>46300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-7200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>700</v>
       </c>
-      <c r="Y102" s="3" t="s">
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>LOVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,336 +665,349 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44682</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44591</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44409</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44318</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44136</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44045</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43954</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43863</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43772</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43681</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43590</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43499</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43408</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43317</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43226</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43135</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43037</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42946</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42582</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>148500</v>
+      </c>
+      <c r="E8" s="3">
         <v>129400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>196200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>116700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>102400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>82900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>129700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>74700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>61900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>54400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>92200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>52100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>48100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>41000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>64200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>41700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>33200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>26800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>39000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>24400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>20700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>17600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>30500</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E9" s="3">
         <v>63300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>86600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>58100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>43400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>36800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>54600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>33400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>30900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>27100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>47000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>25800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>23900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>20000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>28700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>18800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>15400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>16100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>10700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>9200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>14700</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>80900</v>
+      </c>
+      <c r="E10" s="3">
         <v>66100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>109600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>58600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>59000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>46100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>75100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>41300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>31000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>27300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>45200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>26300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>24200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>21000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>35500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>22900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>17800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>14700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>22900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>13700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>11500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>9100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>15800</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1021,8 +1034,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1095,8 +1109,11 @@
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1169,32 +1186,35 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1210,8 +1230,8 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1243,71 +1263,74 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E15" s="3">
         <v>2700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>700</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W15" s="3">
         <v>800</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1317,8 +1340,11 @@
       <c r="Z15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1342,156 +1368,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>138600</v>
+      </c>
+      <c r="E17" s="3">
         <v>126700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>172000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>113700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>93400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>80700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>107900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>72200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>63000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>62800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>86800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>59000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>53100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>50300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>55900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>44400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>40200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>32400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>36500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>26500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>23100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>20800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>36500</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E18" s="3">
         <v>2700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>24200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>21800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-7000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1518,32 +1551,33 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1551,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>200</v>
@@ -1569,10 +1603,10 @@
         <v>200</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>-100</v>
@@ -1581,93 +1615,99 @@
         <v>-100</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E21" s="3">
         <v>5300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>26300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>23300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-6200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-5000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-4800</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1735,108 +1775,114 @@
         <v>0</v>
       </c>
       <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
         <v>300</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E23" s="3">
         <v>2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>24200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-6300</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-8500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1876,8 +1922,8 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
+      <c r="W24" s="3">
+        <v>0</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>3</v>
@@ -1888,8 +1934,11 @@
       <c r="Z24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1962,156 +2011,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E26" s="3">
         <v>1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>32600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-6300</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E27" s="3">
         <v>1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>32600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-33700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-6300</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2184,8 +2242,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2258,8 +2319,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2332,8 +2396,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2406,32 +2473,35 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2439,13 +2509,13 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>-200</v>
@@ -2457,10 +2527,10 @@
         <v>-200</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>100</v>
@@ -2469,93 +2539,99 @@
         <v>100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E33" s="3">
         <v>1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>32600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-33700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-6300</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2628,161 +2704,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E35" s="3">
         <v>1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>32600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-33700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-6300</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44682</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44591</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44409</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44318</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44136</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44045</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43954</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43863</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43772</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43681</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43590</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43499</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43408</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43317</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43226</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43135</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43037</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42946</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42582</v>
       </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2809,8 +2894,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2837,68 +2923,69 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E41" s="3">
         <v>64400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>92400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>47900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>68500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>65700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>78300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>47700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>54800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>45500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>48500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>27900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>44200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>35700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>49100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>44700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>48200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9200</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2911,8 +2998,11 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2985,68 +3075,71 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2800</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,68 +3152,71 @@
       <c r="Z43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>146600</v>
+      </c>
+      <c r="E44" s="3">
         <v>123000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>108500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>94500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>75000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>56000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>50400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>57800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>41000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>33400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>36400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>50200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>40700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>30900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>26200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>24600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>20200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>13900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>11600</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3133,68 +3229,71 @@
       <c r="Z44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E45" s="3">
         <v>16400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6300</v>
-      </c>
-      <c r="S45" s="3">
-        <v>5800</v>
       </c>
       <c r="T45" s="3">
         <v>5800</v>
       </c>
       <c r="U45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="V45" s="3">
         <v>6100</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3207,68 +3306,71 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>209300</v>
+      </c>
+      <c r="E46" s="3">
         <v>210200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>225200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>163600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>161400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>140200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>143400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>123500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>107800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>91900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>100200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>95400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>97500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>78000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>85100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>78500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>78300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>24900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>29700</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3281,8 +3383,11 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3355,68 +3460,71 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>155900</v>
+      </c>
+      <c r="E48" s="3">
         <v>145400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>135000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>127700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>118400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>117600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>25900</v>
       </c>
       <c r="J48" s="3">
         <v>25900</v>
       </c>
       <c r="K48" s="3">
+        <v>25900</v>
+      </c>
+      <c r="L48" s="3">
         <v>25700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>11000</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3429,8 +3537,11 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3441,55 +3552,55 @@
         <v>1600</v>
       </c>
       <c r="F49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G49" s="3">
         <v>1500</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1300</v>
       </c>
       <c r="H49" s="3">
         <v>1300</v>
       </c>
       <c r="I49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J49" s="3">
         <v>1700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1200</v>
-      </c>
-      <c r="P49" s="3">
-        <v>1100</v>
       </c>
       <c r="Q49" s="3">
         <v>1100</v>
       </c>
       <c r="R49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S49" s="3">
         <v>1000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>800</v>
-      </c>
-      <c r="T49" s="3">
-        <v>700</v>
       </c>
       <c r="U49" s="3">
         <v>700</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>3</v>
+      <c r="V49" s="3">
+        <v>700</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>3</v>
@@ -3503,8 +3614,11 @@
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3577,8 +3691,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3651,25 +3768,28 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E52" s="3">
         <v>9400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9800</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
@@ -3681,13 +3801,13 @@
         <v>100</v>
       </c>
       <c r="L52" s="3">
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>200</v>
       </c>
       <c r="O52" s="3">
         <v>200</v>
@@ -3702,16 +3822,16 @@
         <v>200</v>
       </c>
       <c r="S52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T52" s="3">
         <v>300</v>
       </c>
       <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
@@ -3725,8 +3845,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3799,68 +3922,71 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>373900</v>
+      </c>
+      <c r="E54" s="3">
         <v>366600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>371600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>292800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>281300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>259200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>171000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>151100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>135300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>118100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>125700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>118700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>119300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>98800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>105000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>96800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>95100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>39100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>41400</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3873,8 +3999,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3901,8 +4030,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3929,68 +4059,69 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E57" s="3">
         <v>29800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>25400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>25900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>24300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>25200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>24500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>19800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12700</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4134,11 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4062,8 +4196,8 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
+      <c r="V58" s="3">
+        <v>0</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>3</v>
@@ -4077,68 +4211,71 @@
       <c r="Z58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E59" s="3">
         <v>74100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>85500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>56100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>54700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>46000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>32000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>34300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4000</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4151,68 +4288,71 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>98100</v>
+      </c>
+      <c r="E60" s="3">
         <v>103900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>118800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>81600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>80600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>63700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>56300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>59500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>48000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>32300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>32400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>31800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>27100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>27400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>24600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>25100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>21500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>18200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>16700</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4225,8 +4365,11 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4279,11 +4422,11 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>1500</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4299,68 +4442,71 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>109900</v>
+      </c>
+      <c r="E62" s="3">
         <v>103500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>96600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>90700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>83700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>84700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1700</v>
-      </c>
-      <c r="P62" s="3">
-        <v>1600</v>
       </c>
       <c r="Q62" s="3">
         <v>1600</v>
       </c>
       <c r="R62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S62" s="3">
         <v>1400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1100</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4373,8 +4519,11 @@
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4447,8 +4596,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4521,8 +4673,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4595,68 +4750,71 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>207900</v>
+      </c>
+      <c r="E66" s="3">
         <v>207300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>215400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>172200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>164300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>148500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>63100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>65900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>53500</v>
-      </c>
-      <c r="L66" s="3">
-        <v>35500</v>
       </c>
       <c r="M66" s="3">
         <v>35500</v>
       </c>
       <c r="N66" s="3">
+        <v>35500</v>
+      </c>
+      <c r="O66" s="3">
         <v>34300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>28700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>29000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>26200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>26500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>22900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>20800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>17800</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4669,8 +4827,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4697,8 +4858,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4771,8 +4933,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4845,8 +5010,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4919,8 +5087,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4993,68 +5164,71 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-17500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-50200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-52900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-61400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-63400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-85100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-87600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-86500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-78200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-83600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-76800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-72100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-63000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-71400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-68900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-61900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-56300</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5067,8 +5241,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5141,8 +5318,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5215,8 +5395,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5289,68 +5472,71 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E76" s="3">
         <v>159200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>156200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>120600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>116900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>110700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>107900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>85300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>81800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>82600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>90200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>84400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>90600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>69700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>78800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>70300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>72200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>23600</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5363,8 +5549,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5437,161 +5626,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44682</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44591</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44409</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44318</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44136</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44045</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43954</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43863</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43772</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43681</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43590</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43499</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43408</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43317</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43226</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43135</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43037</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42946</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42582</v>
       </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E81" s="3">
         <v>1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>32600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-33700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-6300</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5618,82 +5816,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E83" s="3">
         <v>2700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>800</v>
-      </c>
-      <c r="T83" s="3">
-        <v>700</v>
       </c>
       <c r="U83" s="3">
         <v>700</v>
       </c>
       <c r="V83" s="3">
+        <v>700</v>
+      </c>
+      <c r="W83" s="3">
         <v>800</v>
-      </c>
-      <c r="W83" s="3">
-        <v>300</v>
       </c>
       <c r="X83" s="3">
         <v>300</v>
       </c>
       <c r="Y83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z83" s="3">
         <v>1200</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5766,8 +5968,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5840,8 +6045,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5914,8 +6122,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5988,8 +6199,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6062,82 +6276,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-21800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>49200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>33600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>25200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-14900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-7700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-6300</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6164,82 +6384,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4500</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-4200</v>
       </c>
       <c r="G91" s="3">
         <v>-4200</v>
       </c>
       <c r="H91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-2900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6312,8 +6536,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6386,82 +6613,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-1900</v>
       </c>
       <c r="J94" s="3">
         <v>-1900</v>
       </c>
       <c r="K94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="L94" s="3">
         <v>-2900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1400</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-2300</v>
       </c>
       <c r="W94" s="3">
         <v>-2300</v>
       </c>
       <c r="X94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6488,8 +6721,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6562,8 +6796,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6636,8 +6873,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6710,8 +6950,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6784,82 +7027,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-900</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>25400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>57400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>7900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>6400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>5300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>8400</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6932,78 +7181,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-28000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>44500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-20600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-12600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>30700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>20600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-16300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>46300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-7200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>700</v>
       </c>
-      <c r="Z102" s="3" t="s">
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>LOVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,349 +665,362 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44864</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44682</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44591</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44409</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44318</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44136</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44045</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43954</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43863</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43772</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43681</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43590</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43499</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43408</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43317</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43226</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43135</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43037</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42946</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42582</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>134800</v>
+      </c>
+      <c r="E8" s="3">
         <v>148500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>129400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>196200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>116700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>102400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>82900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>129700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>74700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>61900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>54400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>92200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>52100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>48100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>41000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>64200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>41700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>33200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>26800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>39000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>24400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>20700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>17600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>30500</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E9" s="3">
         <v>67600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>63300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>86600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>58100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>43400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>36800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>54600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>33400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>30900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>27100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>47000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>25800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>23900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>20000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>28700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>18800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>15400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>12100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>16100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>10700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>9200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>14700</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>63600</v>
+      </c>
+      <c r="E10" s="3">
         <v>80900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>66100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>109600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>58600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>59000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>46100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>75100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>41300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>31000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>27300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>45200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>26300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>24200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>21000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>35500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>22900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>17800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>14700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>22900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>13700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>11500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>9100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>15800</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1035,8 +1048,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1112,8 +1126,11 @@
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1189,8 +1206,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1200,24 +1220,24 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1233,8 +1253,8 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1266,74 +1286,77 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E15" s="3">
         <v>3100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>700</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X15" s="3">
         <v>800</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,8 +1366,11 @@
       <c r="AA15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1369,162 +1395,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>146400</v>
+      </c>
+      <c r="E17" s="3">
         <v>138600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>126700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>172000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>113700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>93400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>80700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>107900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>72200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>63000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>62800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>86800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>59000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>53100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>50300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>55900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>44400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>40200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>32400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>36500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>26500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>23100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>20800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>36500</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E18" s="3">
         <v>9900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>24200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>21800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-7000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-6000</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1552,35 +1585,36 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1588,13 +1622,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>200</v>
@@ -1606,10 +1640,10 @@
         <v>200</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>-100</v>
@@ -1618,96 +1652,102 @@
         <v>-100</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E21" s="3">
         <v>13000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>26300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>23300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-8000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-6200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-5000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-4800</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1778,114 +1818,120 @@
         <v>0</v>
       </c>
       <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
         <v>300</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E23" s="3">
         <v>9900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>24200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-6300</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E24" s="3">
         <v>2800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-8500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1925,8 +1971,8 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>3</v>
+      <c r="X24" s="3">
+        <v>0</v>
       </c>
       <c r="Y24" s="3" t="s">
         <v>3</v>
@@ -1937,8 +1983,11 @@
       <c r="AA24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2014,162 +2063,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E26" s="3">
         <v>7100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>32600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>21700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-6300</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E27" s="3">
         <v>7100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>32600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>21700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-33700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-6300</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2245,8 +2303,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2322,8 +2383,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2399,8 +2463,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2476,35 +2543,38 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2512,13 +2582,13 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>-200</v>
@@ -2530,10 +2600,10 @@
         <v>-200</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="U32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>100</v>
@@ -2542,96 +2612,102 @@
         <v>100</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E33" s="3">
         <v>7100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>32600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>21700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-33700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-6400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-6300</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2707,167 +2783,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E35" s="3">
         <v>7100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>32600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>21700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-33700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-6400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-6300</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44864</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44682</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44591</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44409</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44318</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44136</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44045</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43954</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43863</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43772</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43681</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43590</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43499</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43408</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43317</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43226</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43135</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43037</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42946</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42582</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2895,8 +2980,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2924,71 +3010,72 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E41" s="3">
         <v>17700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>64400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>92400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>47900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>68500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>65700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>78300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>47700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>54800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>45500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>48500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>27900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>44200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>35700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>49100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>44700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>48200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9200</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3001,8 +3088,11 @@
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3078,71 +3168,74 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E43" s="3">
         <v>9000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2800</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3155,71 +3248,74 @@
       <c r="AA43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>154500</v>
+      </c>
+      <c r="E44" s="3">
         <v>146600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>123000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>108500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>94500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>75000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>56000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>50400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>57800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>41000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>33400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>36400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>50200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>40700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>30900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>26200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>24600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>20200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>13900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>11600</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3232,71 +3328,74 @@
       <c r="AA44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E45" s="3">
         <v>36000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6300</v>
-      </c>
-      <c r="T45" s="3">
-        <v>5800</v>
       </c>
       <c r="U45" s="3">
         <v>5800</v>
       </c>
       <c r="V45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="W45" s="3">
         <v>6100</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3309,71 +3408,74 @@
       <c r="AA45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>215500</v>
+      </c>
+      <c r="E46" s="3">
         <v>209300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>210200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>225200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>163600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>161400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>140200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>143400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>123500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>107800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>91900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>100200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>95400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>97500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>78000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>85100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>78500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>78300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>24900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>29700</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3386,8 +3488,11 @@
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3463,71 +3568,74 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>180600</v>
+      </c>
+      <c r="E48" s="3">
         <v>155900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>145400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>135000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>127700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>118400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>117600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>25900</v>
       </c>
       <c r="K48" s="3">
         <v>25900</v>
       </c>
       <c r="L48" s="3">
+        <v>25900</v>
+      </c>
+      <c r="M48" s="3">
         <v>25700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>24400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>23800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>21800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>20400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>15700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>11000</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,13 +3648,16 @@
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E49" s="3">
         <v>1600</v>
@@ -3555,55 +3666,55 @@
         <v>1600</v>
       </c>
       <c r="G49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H49" s="3">
         <v>1500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1300</v>
       </c>
       <c r="I49" s="3">
         <v>1300</v>
       </c>
       <c r="J49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K49" s="3">
         <v>1700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>1100</v>
       </c>
       <c r="R49" s="3">
         <v>1100</v>
       </c>
       <c r="S49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T49" s="3">
         <v>1000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>800</v>
-      </c>
-      <c r="U49" s="3">
-        <v>700</v>
       </c>
       <c r="V49" s="3">
         <v>700</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>3</v>
+      <c r="W49" s="3">
+        <v>700</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>3</v>
@@ -3617,8 +3728,11 @@
       <c r="AA49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3694,8 +3808,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3771,28 +3888,31 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E52" s="3">
         <v>7200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9800</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -3804,13 +3924,13 @@
         <v>100</v>
       </c>
       <c r="M52" s="3">
+        <v>100</v>
+      </c>
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>100</v>
-      </c>
-      <c r="O52" s="3">
-        <v>200</v>
       </c>
       <c r="P52" s="3">
         <v>200</v>
@@ -3825,16 +3945,16 @@
         <v>200</v>
       </c>
       <c r="T52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U52" s="3">
         <v>300</v>
       </c>
       <c r="V52" s="3">
-        <v>0</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>3</v>
@@ -3848,8 +3968,11 @@
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3925,71 +4048,74 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>407400</v>
+      </c>
+      <c r="E54" s="3">
         <v>373900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>366600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>371600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>292800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>281300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>259200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>171000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>151100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>135300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>118100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>125700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>118700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>119300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>98800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>105000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>96800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>95100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>39100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>41400</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4002,8 +4128,11 @@
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4031,8 +4160,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4060,71 +4190,72 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E57" s="3">
         <v>34200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>29800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>25400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>25900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>24300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>25200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>24500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>17700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>15300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12700</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4137,8 +4268,11 @@
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4199,8 +4333,8 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>3</v>
+      <c r="W58" s="3">
+        <v>0</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>3</v>
@@ -4214,71 +4348,74 @@
       <c r="AA58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E59" s="3">
         <v>63800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>74100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>85500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>56100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>54700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>46000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>32000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>34300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4000</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4291,71 +4428,74 @@
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E60" s="3">
         <v>98100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>103900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>118800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>81600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>80600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>63700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>56300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>59500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>48000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>32300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>32400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>31800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>27100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>27400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>24600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>25100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>21500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>18200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>16700</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4368,8 +4508,11 @@
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4425,11 +4568,11 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>1500</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4445,71 +4588,74 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>130200</v>
+      </c>
+      <c r="E62" s="3">
         <v>109900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>103500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>96600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>90700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>83700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>84700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>1600</v>
       </c>
       <c r="R62" s="3">
         <v>1600</v>
       </c>
       <c r="S62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T62" s="3">
         <v>1400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1100</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4522,8 +4668,11 @@
       <c r="AA62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4599,8 +4748,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4676,8 +4828,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4753,71 +4908,74 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>249200</v>
+      </c>
+      <c r="E66" s="3">
         <v>207900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>207300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>215400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>172200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>164300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>148500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>63100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>65900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>53500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>35500</v>
       </c>
       <c r="N66" s="3">
         <v>35500</v>
       </c>
       <c r="O66" s="3">
+        <v>35500</v>
+      </c>
+      <c r="P66" s="3">
         <v>34300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>28700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>29000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>26200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>26500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>22900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>20800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>17800</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4830,8 +4988,11 @@
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4859,8 +5020,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4936,8 +5098,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5013,8 +5178,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5090,8 +5258,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5167,71 +5338,74 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-50200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-52900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-61400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-63400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-85100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-87600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-86500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-78200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-83600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-76800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-72100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-63000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-71400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-68900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-61900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-56300</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5244,8 +5418,11 @@
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5321,8 +5498,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5398,8 +5578,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5475,71 +5658,74 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>158200</v>
+      </c>
+      <c r="E76" s="3">
         <v>166000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>159200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>156200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>120600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>116900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>110700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>107900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>85300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>81800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>82600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>90200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>84400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>90600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>69700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>78800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>70300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>72200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>23600</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5552,8 +5738,11 @@
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5629,167 +5818,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44864</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44682</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44591</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44409</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44318</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44136</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44045</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43954</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43863</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43772</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43681</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43590</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43499</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43408</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43317</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43226</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43135</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43037</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42946</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42582</v>
       </c>
-      <c r="AA80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E81" s="3">
         <v>7100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>32600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>21700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-33700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-6400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-6300</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5817,85 +6015,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E83" s="3">
         <v>3100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>800</v>
-      </c>
-      <c r="U83" s="3">
-        <v>700</v>
       </c>
       <c r="V83" s="3">
         <v>700</v>
       </c>
       <c r="W83" s="3">
+        <v>700</v>
+      </c>
+      <c r="X83" s="3">
         <v>800</v>
-      </c>
-      <c r="X83" s="3">
-        <v>300</v>
       </c>
       <c r="Y83" s="3">
         <v>300</v>
       </c>
       <c r="Z83" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA83" s="3">
         <v>1200</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5971,8 +6173,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6048,8 +6253,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6125,8 +6333,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6202,8 +6413,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6279,85 +6493,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-37600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-21800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>49200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>33600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>25200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-13400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-7700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-5600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-6300</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6385,85 +6605,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-4200</v>
       </c>
       <c r="H91" s="3">
         <v>-4200</v>
       </c>
       <c r="I91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-2900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6539,8 +6763,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6616,85 +6843,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1900</v>
       </c>
       <c r="K94" s="3">
         <v>-1900</v>
       </c>
       <c r="L94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="M94" s="3">
         <v>-2900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1400</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-2300</v>
       </c>
       <c r="X94" s="3">
         <v>-2300</v>
       </c>
       <c r="Y94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6722,8 +6955,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6799,8 +7033,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6876,8 +7113,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6953,8 +7193,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7030,85 +7273,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-900</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>25400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>57400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>7900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>6400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>5300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>8400</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7184,81 +7433,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-46700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-28000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>44500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-20600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>30700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>20600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-16300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-13400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>46300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-7200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>700</v>
       </c>
-      <c r="AA102" s="3" t="s">
+      <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
   <si>
     <t>LOVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,362 +665,375 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44955</v>
+      </c>
+      <c r="E7" s="2">
         <v>44864</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44682</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44591</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44409</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44318</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44136</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44045</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43954</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43863</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43772</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43681</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43590</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43499</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43408</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43317</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43226</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43135</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43037</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42946</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42582</v>
       </c>
-      <c r="AB7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>238800</v>
+      </c>
+      <c r="E8" s="3">
         <v>134800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>148500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>129400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>196200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>116700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>102400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>82900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>129700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>74700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>61900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>54400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>92200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>52100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>48100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>41000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>64200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>41700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>33200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>26800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>39000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>24400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>20700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>17600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>30500</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>103600</v>
+      </c>
+      <c r="E9" s="3">
         <v>71200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>67600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>63300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>86600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>58100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>43400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>36800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>54600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>33400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>30900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>27100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>47000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>25800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>23900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>20000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>28700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>18800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>15400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>12100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>16100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>10700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>9200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>8500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>14700</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>135200</v>
+      </c>
+      <c r="E10" s="3">
         <v>63600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>80900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>66100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>109600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>58600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>59000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>46100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>75100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>41300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>31000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>27300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>45200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>26300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>24200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>21000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>35500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>22900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>17800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>14700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>22900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>13700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>11500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>9100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>15800</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1049,8 +1062,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1129,8 +1143,11 @@
       <c r="AB12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1209,13 +1226,16 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1223,24 +1243,24 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1276,8 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1289,77 +1309,80 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E15" s="3">
         <v>2500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>1100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>700</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X15" s="3">
+      <c r="X15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="3">
         <v>800</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1369,8 +1392,11 @@
       <c r="AB15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1396,168 +1422,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200800</v>
+      </c>
+      <c r="E17" s="3">
         <v>146400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>138600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>126700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>172000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>113700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>93400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>80700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>107900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>72200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>63000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>62800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>86800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>59000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>53100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>50300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>55900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>44400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>40200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>32400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>36500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>26500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>23100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>20800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>36500</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-11600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>24200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-7000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-5600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-6000</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1586,38 +1619,39 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1625,13 +1659,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
       <c r="Q20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>200</v>
@@ -1643,10 +1677,10 @@
         <v>200</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3">
         <v>-100</v>
@@ -1655,99 +1689,105 @@
         <v>-100</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>13000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>26300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>23300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-8000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-6200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-5000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-4800</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1821,120 +1861,126 @@
         <v>0</v>
       </c>
       <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
         <v>300</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>24200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-6300</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-8500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1974,8 +2020,8 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>3</v>
+      <c r="Y24" s="3">
+        <v>0</v>
       </c>
       <c r="Z24" s="3" t="s">
         <v>3</v>
@@ -1986,8 +2032,11 @@
       <c r="AB24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2066,168 +2115,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>32600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>21700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>8400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-6300</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>32600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>21700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-33700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-6400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-6300</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2306,8 +2364,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2386,8 +2447,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2466,8 +2530,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2546,38 +2613,41 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2585,13 +2655,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>-200</v>
@@ -2603,10 +2673,10 @@
         <v>-200</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
         <v>100</v>
@@ -2615,99 +2685,105 @@
         <v>100</v>
       </c>
       <c r="Y32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>32600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>21700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-33700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-6400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-6300</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2786,173 +2862,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>32600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>21700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-33700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-6400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-6300</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44955</v>
+      </c>
+      <c r="E38" s="2">
         <v>44864</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44682</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44591</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44409</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44318</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44136</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44045</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43954</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43863</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43772</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43681</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43590</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43499</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43408</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43317</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43226</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43135</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43037</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42946</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42582</v>
       </c>
-      <c r="AB38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2981,8 +3066,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3011,74 +3097,75 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E41" s="3">
         <v>3800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>64400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>92400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>47900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>68500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>65700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>78300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>47700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>54800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>45500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>48500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>27900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>44200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>35700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>49100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>44700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>48200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9200</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3091,8 +3178,11 @@
       <c r="AB41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3171,74 +3261,77 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E43" s="3">
         <v>15400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2800</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3251,74 +3344,77 @@
       <c r="AB43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E44" s="3">
         <v>154500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>146600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>123000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>108500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>94500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>75000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>56000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>50400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>57800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>41000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>33400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>36400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>50200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>40700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>30900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>26200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>24600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>20200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>13900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>11600</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3331,74 +3427,77 @@
       <c r="AB44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E45" s="3">
         <v>41900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>36000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6300</v>
-      </c>
-      <c r="U45" s="3">
-        <v>5800</v>
       </c>
       <c r="V45" s="3">
         <v>5800</v>
       </c>
       <c r="W45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="X45" s="3">
         <v>6100</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3411,74 +3510,77 @@
       <c r="AB45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>194000</v>
+      </c>
+      <c r="E46" s="3">
         <v>215500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>209300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>210200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>225200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>163600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>161400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>140200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>143400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>123500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>107800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>91900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>100200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>95400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>97500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>78000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>85100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>78500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>78300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>24900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>29700</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3491,8 +3593,11 @@
       <c r="AB46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3571,74 +3676,77 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>191200</v>
+      </c>
+      <c r="E48" s="3">
         <v>180600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>155900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>145400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>135000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>127700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>118400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>117600</v>
-      </c>
-      <c r="K48" s="3">
-        <v>25900</v>
       </c>
       <c r="L48" s="3">
         <v>25900</v>
       </c>
       <c r="M48" s="3">
+        <v>25900</v>
+      </c>
+      <c r="N48" s="3">
         <v>25700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>24400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>23800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>21800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>20400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>19500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>15700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>11000</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,16 +3759,19 @@
       <c r="AB48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1500</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1600</v>
       </c>
       <c r="F49" s="3">
         <v>1600</v>
@@ -3669,55 +3780,55 @@
         <v>1600</v>
       </c>
       <c r="H49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I49" s="3">
         <v>1500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1300</v>
       </c>
       <c r="J49" s="3">
         <v>1300</v>
       </c>
       <c r="K49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L49" s="3">
         <v>1700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1200</v>
-      </c>
-      <c r="R49" s="3">
-        <v>1100</v>
       </c>
       <c r="S49" s="3">
         <v>1100</v>
       </c>
       <c r="T49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U49" s="3">
         <v>1000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>800</v>
-      </c>
-      <c r="V49" s="3">
-        <v>700</v>
       </c>
       <c r="W49" s="3">
         <v>700</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>3</v>
+      <c r="X49" s="3">
+        <v>700</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>3</v>
@@ -3731,8 +3842,11 @@
       <c r="AB49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3811,8 +3925,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3891,31 +4008,34 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E52" s="3">
         <v>9800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9800</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -3927,13 +4047,13 @@
         <v>100</v>
       </c>
       <c r="N52" s="3">
+        <v>100</v>
+      </c>
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>100</v>
-      </c>
-      <c r="P52" s="3">
-        <v>200</v>
       </c>
       <c r="Q52" s="3">
         <v>200</v>
@@ -3948,16 +4068,16 @@
         <v>200</v>
       </c>
       <c r="U52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V52" s="3">
         <v>300</v>
       </c>
       <c r="W52" s="3">
-        <v>0</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>3</v>
@@ -3971,8 +4091,11 @@
       <c r="AB52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4051,74 +4174,77 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>418100</v>
+      </c>
+      <c r="E54" s="3">
         <v>407400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>373900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>366600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>371600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>292800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>281300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>259200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>171000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>151100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>135300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>118100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>125700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>118700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>119300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>98800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>105000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>96800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>95100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>39100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>41400</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4131,8 +4257,11 @@
       <c r="AB54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4161,8 +4290,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4191,74 +4321,75 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E57" s="3">
         <v>47300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>34200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>29800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>25400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>25900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>24300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>25200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>24500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>19000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>17700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>16900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>15300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12700</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4271,8 +4402,11 @@
       <c r="AB57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4336,8 +4470,8 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>3</v>
+      <c r="X58" s="3">
+        <v>0</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>3</v>
@@ -4351,74 +4485,77 @@
       <c r="AB58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E59" s="3">
         <v>71700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>63800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>74100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>85500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>56100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>54700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>46000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>34300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4000</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4431,74 +4568,77 @@
       <c r="AB59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E60" s="3">
         <v>119000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>98100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>103900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>118800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>81600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>80600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>63700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>56300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>59500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>48000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>32300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>32400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>31800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>27100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>27400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>24600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>25100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>21500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>18200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>16700</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4511,8 +4651,11 @@
       <c r="AB60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4571,11 +4714,11 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>1500</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4591,74 +4734,77 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E62" s="3">
         <v>130200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>109900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>103500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>96600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>90700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>83700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>84700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1700</v>
-      </c>
-      <c r="R62" s="3">
-        <v>1600</v>
       </c>
       <c r="S62" s="3">
         <v>1600</v>
       </c>
       <c r="T62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U62" s="3">
         <v>1400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1100</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4671,8 +4817,11 @@
       <c r="AB62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4751,8 +4900,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4831,8 +4983,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4911,74 +5066,77 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>224800</v>
+      </c>
+      <c r="E66" s="3">
         <v>249200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>207900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>207300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>215400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>172200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>164300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>148500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>63100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>65900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>53500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>35500</v>
       </c>
       <c r="O66" s="3">
         <v>35500</v>
       </c>
       <c r="P66" s="3">
+        <v>35500</v>
+      </c>
+      <c r="Q66" s="3">
         <v>34300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>28700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>29000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>26200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>26500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>22900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>20800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>17800</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4991,8 +5149,11 @@
       <c r="AB66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5021,8 +5182,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5101,8 +5263,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5181,8 +5346,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5261,8 +5429,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5341,74 +5512,77 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-50200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-52900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-61400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-63400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-85100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-87600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-86500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-78200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-83600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-76800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-72100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-63000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-71400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-68900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-61900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-56300</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5421,8 +5595,11 @@
       <c r="AB72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5501,8 +5678,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5581,8 +5761,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5661,74 +5844,77 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>193300</v>
+      </c>
+      <c r="E76" s="3">
         <v>158200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>166000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>159200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>156200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>120600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>116900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>110700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>107900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>85300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>81800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>82600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>90200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>84400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>90600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>69700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>78800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>70300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>72200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>18300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>23600</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5741,8 +5927,11 @@
       <c r="AB76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5821,173 +6010,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44955</v>
+      </c>
+      <c r="E80" s="2">
         <v>44864</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44682</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44591</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44409</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44318</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44136</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44045</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43954</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43863</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43772</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43681</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43590</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43499</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43408</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43317</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43226</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43135</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43037</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42946</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42582</v>
       </c>
-      <c r="AB80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>32600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>21700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-33700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-6400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-6300</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6016,88 +6214,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E83" s="3">
         <v>2500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>800</v>
-      </c>
-      <c r="V83" s="3">
-        <v>700</v>
       </c>
       <c r="W83" s="3">
         <v>700</v>
       </c>
       <c r="X83" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y83" s="3">
         <v>800</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>300</v>
       </c>
       <c r="Z83" s="3">
         <v>300</v>
       </c>
       <c r="AA83" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB83" s="3">
         <v>1200</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6176,8 +6378,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6256,8 +6461,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6336,8 +6544,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6416,8 +6627,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6496,88 +6710,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-37600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-21800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>49200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-15900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>33600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>25200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-14900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-8200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-7700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-5600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>6800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-4600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-4200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-6300</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6606,88 +6826,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7800</v>
+        <v>-4000</v>
       </c>
       <c r="E91" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7600</v>
       </c>
-      <c r="F91" s="3">
-        <v>-5900</v>
-      </c>
       <c r="G91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I91" s="3">
         <v>-4500</v>
       </c>
-      <c r="H91" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-4200</v>
-      </c>
       <c r="J91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6766,8 +6990,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6846,88 +7073,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-1900</v>
       </c>
       <c r="L94" s="3">
         <v>-1900</v>
       </c>
       <c r="M94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N94" s="3">
         <v>-2900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1400</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-2300</v>
       </c>
       <c r="Y94" s="3">
         <v>-2300</v>
       </c>
       <c r="Z94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6956,8 +7189,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7036,8 +7270,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7116,8 +7353,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7196,8 +7436,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7276,8 +7519,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7285,79 +7531,82 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-900</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>25400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>57400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>7900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>6400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>5300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>8400</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7436,84 +7685,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-46700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-28000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>44500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-20600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-12600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>30700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>20600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-16300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-13400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>46300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-7200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>4900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>700</v>
       </c>
-      <c r="AB102" s="3" t="s">
+      <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>LOVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,375 +665,387 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44955</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44864</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44682</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44591</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44409</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44318</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44136</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44045</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43954</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43863</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43772</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43681</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43590</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43499</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43408</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43317</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43226</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43135</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43037</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42946</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42582</v>
       </c>
-      <c r="AC7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E8" s="3">
         <v>238800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>134800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>148500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>129400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>196200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>116700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>102400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>82900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>129700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>74700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>61900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>54400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>92200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>52100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>48100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>41000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>64200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>41700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>33200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>26800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>39000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>24400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>20700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>17600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>30500</v>
       </c>
-      <c r="AC8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E9" s="3">
         <v>103600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>71200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>67600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>63300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>86600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>58100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>43400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>36800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>54600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>33400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>30900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>27100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>47000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>25800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>23900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>20000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>28700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>18800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>15400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>12100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>16100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>10700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>9200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>8500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>14700</v>
       </c>
-      <c r="AC9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E10" s="3">
         <v>135200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>63600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>80900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>66100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>109600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>58600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>59000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>46100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>75100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>41300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>31000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>27300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>45200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>26300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>24200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>21000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>35500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>22900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>17800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>14700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>22900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>13700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>11500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>9100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>15800</v>
       </c>
-      <c r="AC10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1063,8 +1075,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,8 +1159,11 @@
       <c r="AC12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1229,16 +1245,19 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1246,24 +1265,24 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1279,8 +1298,8 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1312,80 +1331,83 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E15" s="3">
         <v>2600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>1100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>700</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="3">
         <v>800</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1395,8 +1417,11 @@
       <c r="AC15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1423,174 +1448,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>147100</v>
+      </c>
+      <c r="E17" s="3">
         <v>200800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>146400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>138600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>126700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>172000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>113700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>93400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>80700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>107900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>72200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>63000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>62800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>86800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>59000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>53100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>50300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>55900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>44400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>40200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>32400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>36500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>26500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>23100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>20800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>36500</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E18" s="3">
         <v>38000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-11600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>24200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-9300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>8300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-7000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-5600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-2400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-3200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-6000</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1620,41 +1652,42 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1662,13 +1695,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
       </c>
       <c r="R20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>200</v>
@@ -1680,10 +1713,10 @@
         <v>200</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>-100</v>
@@ -1692,102 +1725,108 @@
         <v>-100</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E21" s="3">
         <v>40700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-9200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>13000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>26300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>23300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-8000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-6200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-5000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-4800</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1864,126 +1903,132 @@
         <v>0</v>
       </c>
       <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
         <v>300</v>
       </c>
-      <c r="AC22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E23" s="3">
         <v>38100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>24200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-6300</v>
       </c>
-      <c r="AC23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>10400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-8500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -2023,8 +2068,8 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>3</v>
+      <c r="Z24" s="3">
+        <v>0</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>3</v>
@@ -2035,8 +2080,11 @@
       <c r="AC24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2118,174 +2166,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E26" s="3">
         <v>27600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>32600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>21700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-9100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>8400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-7000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-5700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-6300</v>
       </c>
-      <c r="AC26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E27" s="3">
         <v>27600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>32600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>21700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>8400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-33700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-6400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-6300</v>
       </c>
-      <c r="AC27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2367,8 +2424,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2450,8 +2510,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2533,8 +2596,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2616,41 +2682,44 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2658,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
       <c r="R32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>-200</v>
@@ -2676,10 +2745,10 @@
         <v>-200</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
         <v>100</v>
@@ -2688,102 +2757,108 @@
         <v>100</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>100</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E33" s="3">
         <v>27600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>32600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>21700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>8400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-33700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-6400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-6300</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2865,179 +2940,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E35" s="3">
         <v>27600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>32600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>21700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>8400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-33700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-6400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-6300</v>
       </c>
-      <c r="AC35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44955</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44864</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44682</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44591</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44409</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44318</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44136</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44045</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43954</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43863</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43772</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43681</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43590</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43499</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43408</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43317</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43226</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43135</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43037</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42946</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42582</v>
       </c>
-      <c r="AC38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3067,8 +3151,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3098,77 +3183,78 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E41" s="3">
         <v>43500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>64400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>92400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>47900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>68500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>65700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>78300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>47700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>54800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>45500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>48500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>27900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>44200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>35700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>49100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>44700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>48200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9200</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3181,8 +3267,11 @@
       <c r="AC41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3264,77 +3353,80 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E43" s="3">
         <v>9500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2800</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3347,77 +3439,80 @@
       <c r="AC43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>106800</v>
+      </c>
+      <c r="E44" s="3">
         <v>120000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>154500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>146600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>123000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>108500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>94500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>75000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>56000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>50400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>57800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>41000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>33400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>36400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>50200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>40700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>30900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>26200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>24600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>20200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>13900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>11600</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3430,77 +3525,80 @@
       <c r="AC44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E45" s="3">
         <v>21100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>41900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>36000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6300</v>
-      </c>
-      <c r="V45" s="3">
-        <v>5800</v>
       </c>
       <c r="W45" s="3">
         <v>5800</v>
       </c>
       <c r="X45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="Y45" s="3">
         <v>6100</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3513,77 +3611,80 @@
       <c r="AC45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>187700</v>
+      </c>
+      <c r="E46" s="3">
         <v>194000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>215500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>209300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>210200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>225200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>163600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>161400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>140200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>143400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>123500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>107800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>91900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>100200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>95400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>97500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>78000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>85100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>78500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>78300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>24900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>29700</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3596,8 +3697,11 @@
       <c r="AC46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3679,77 +3783,80 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>201700</v>
+      </c>
+      <c r="E48" s="3">
         <v>191200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>180600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>155900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>145400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>135000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>127700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>118400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>117600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>25900</v>
       </c>
       <c r="M48" s="3">
         <v>25900</v>
       </c>
       <c r="N48" s="3">
+        <v>25900</v>
+      </c>
+      <c r="O48" s="3">
         <v>25700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>24400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>23800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>21800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>20400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>19500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>15700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>11000</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3762,8 +3869,11 @@
       <c r="AC48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3771,10 +3881,10 @@
         <v>1600</v>
       </c>
       <c r="E49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F49" s="3">
         <v>1500</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1600</v>
       </c>
       <c r="G49" s="3">
         <v>1600</v>
@@ -3783,55 +3893,55 @@
         <v>1600</v>
       </c>
       <c r="I49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J49" s="3">
         <v>1500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1300</v>
       </c>
       <c r="K49" s="3">
         <v>1300</v>
       </c>
       <c r="L49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M49" s="3">
         <v>1700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1200</v>
-      </c>
-      <c r="S49" s="3">
-        <v>1100</v>
       </c>
       <c r="T49" s="3">
         <v>1100</v>
       </c>
       <c r="U49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V49" s="3">
         <v>1000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>800</v>
-      </c>
-      <c r="W49" s="3">
-        <v>700</v>
       </c>
       <c r="X49" s="3">
         <v>700</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>3</v>
+      <c r="Y49" s="3">
+        <v>700</v>
       </c>
       <c r="Z49" s="3" t="s">
         <v>3</v>
@@ -3845,8 +3955,11 @@
       <c r="AC49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3928,8 +4041,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4011,34 +4127,37 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E52" s="3">
         <v>31300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9800</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
@@ -4050,13 +4169,13 @@
         <v>100</v>
       </c>
       <c r="O52" s="3">
+        <v>100</v>
+      </c>
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>100</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>200</v>
       </c>
       <c r="R52" s="3">
         <v>200</v>
@@ -4071,16 +4190,16 @@
         <v>200</v>
       </c>
       <c r="V52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W52" s="3">
         <v>300</v>
       </c>
       <c r="X52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
       </c>
       <c r="Z52" s="3" t="s">
         <v>3</v>
@@ -4094,8 +4213,11 @@
       <c r="AC52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4177,77 +4299,80 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>428000</v>
+      </c>
+      <c r="E54" s="3">
         <v>418100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>407400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>373900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>366600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>371600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>292800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>281300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>259200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>171000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>151100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>135300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>118100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>125700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>118700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>119300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>98800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>105000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>96800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>95100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>39100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>41400</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4260,8 +4385,11 @@
       <c r="AC54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4291,8 +4419,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4322,77 +4451,78 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E57" s="3">
         <v>24600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>47300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>29800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>33200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>25400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>25900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>24300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>25200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>24500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>19900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>17700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>19800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>16800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>16900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>15300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>12700</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4405,8 +4535,11 @@
       <c r="AC57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4473,8 +4606,8 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>3</v>
+      <c r="Y58" s="3">
+        <v>0</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>3</v>
@@ -4488,77 +4621,80 @@
       <c r="AC58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E59" s="3">
         <v>64300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>71700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>63800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>74100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>85500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>56100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>54700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>46000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>32000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>34300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4000</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4571,77 +4707,80 @@
       <c r="AC59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>96900</v>
+      </c>
+      <c r="E60" s="3">
         <v>88800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>119000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>98100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>103900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>118800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>81600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>80600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>63700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>56300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>59500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>48000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>32300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>32400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>31800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>27100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>27400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>24600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>25100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>21500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>18200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>16700</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4654,8 +4793,11 @@
       <c r="AC60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4717,11 +4859,11 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>1500</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -4737,77 +4879,80 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>141900</v>
+      </c>
+      <c r="E62" s="3">
         <v>136000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>130200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>109900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>103500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>96600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>90700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>83700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>84700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1700</v>
-      </c>
-      <c r="S62" s="3">
-        <v>1600</v>
       </c>
       <c r="T62" s="3">
         <v>1600</v>
       </c>
       <c r="U62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V62" s="3">
         <v>1400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1100</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4820,8 +4965,11 @@
       <c r="AC62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4903,8 +5051,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4986,8 +5137,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5069,77 +5223,80 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>238800</v>
+      </c>
+      <c r="E66" s="3">
         <v>224800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>249200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>207900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>207300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>215400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>172200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>164300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>148500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>63100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>65900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>53500</v>
-      </c>
-      <c r="O66" s="3">
-        <v>35500</v>
       </c>
       <c r="P66" s="3">
         <v>35500</v>
       </c>
       <c r="Q66" s="3">
+        <v>35500</v>
+      </c>
+      <c r="R66" s="3">
         <v>34300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>28700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>29000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>26200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>26500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>22900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>20800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>17800</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5152,8 +5309,11 @@
       <c r="AC66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5183,8 +5343,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5266,8 +5427,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5349,8 +5513,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5432,8 +5599,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5515,77 +5685,80 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E72" s="3">
         <v>10700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-50200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-52900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-61400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-63400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-85100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-87600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-86500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-78200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-83600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-76800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-72100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-63000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-71400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-68900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-61900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-56300</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5598,8 +5771,11 @@
       <c r="AC72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5681,8 +5857,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5764,8 +5943,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5847,77 +6029,80 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>189200</v>
+      </c>
+      <c r="E76" s="3">
         <v>193300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>158200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>166000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>159200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>156200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>120600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>116900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>110700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>107900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>85300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>81800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>82600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>90200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>84400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>90600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>69700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>78800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>70300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>72200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>18300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>23600</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5930,8 +6115,11 @@
       <c r="AC76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6013,179 +6201,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44955</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44864</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44682</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44591</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44409</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44318</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44136</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44045</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43954</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43863</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43772</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43681</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43590</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43499</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43408</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43317</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43226</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43135</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43037</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42946</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42582</v>
       </c>
-      <c r="AC80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E81" s="3">
         <v>27600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>32600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>21700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>8400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-33700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-6400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-6300</v>
       </c>
-      <c r="AC81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6215,91 +6412,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E83" s="3">
         <v>2600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>800</v>
-      </c>
-      <c r="W83" s="3">
-        <v>700</v>
       </c>
       <c r="X83" s="3">
         <v>700</v>
       </c>
       <c r="Y83" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z83" s="3">
         <v>800</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>300</v>
       </c>
       <c r="AA83" s="3">
         <v>300</v>
       </c>
       <c r="AB83" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC83" s="3">
         <v>1200</v>
       </c>
-      <c r="AC83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6381,8 +6582,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6464,8 +6668,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6547,8 +6754,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6630,8 +6840,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6713,91 +6926,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E89" s="3">
         <v>43800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-37600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-21800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>49200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-15900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>33600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>25200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-13400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-14900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-8200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-7700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-5600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>6800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-4600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-6300</v>
       </c>
-      <c r="AC89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6827,91 +7046,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6993,8 +7216,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7076,91 +7302,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-1900</v>
       </c>
       <c r="M94" s="3">
         <v>-1900</v>
       </c>
       <c r="N94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="O94" s="3">
         <v>-2900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-2300</v>
       </c>
       <c r="Z94" s="3">
         <v>-2300</v>
       </c>
       <c r="AA94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7190,8 +7422,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7273,8 +7506,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7356,8 +7592,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7439,8 +7678,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7522,91 +7764,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>
       </c>
       <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-900</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>25400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-300</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>57400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>7900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>6400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>5300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>8400</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7688,87 +7936,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E102" s="3">
         <v>39700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-46700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-28000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>44500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-20600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>30700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>20600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-16300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-13400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>46300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-7200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>3500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>4900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>700</v>
       </c>
-      <c r="AC102" s="3" t="s">
+      <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LOVE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
   <si>
     <t>LOVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,387 +665,400 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45137</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44955</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44864</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44682</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44591</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44409</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44318</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44136</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44045</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43954</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43863</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43772</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43681</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43590</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43499</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43408</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43317</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43226</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43135</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43037</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42946</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42582</v>
       </c>
-      <c r="AD7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>154500</v>
+      </c>
+      <c r="E8" s="3">
         <v>141200</v>
       </c>
-      <c r="E8" s="3">
-        <v>238800</v>
-      </c>
       <c r="F8" s="3">
+        <v>238500</v>
+      </c>
+      <c r="G8" s="3">
         <v>134800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>148500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>129400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>196200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>116700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>102400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>82900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>129700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>74700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>61900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>54400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>92200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>52100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>48100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>41000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>64200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>41700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>33200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>26800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>39000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>24400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>20700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>17600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>30500</v>
       </c>
-      <c r="AD8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>70500</v>
+        <v>62100</v>
       </c>
       <c r="E9" s="3">
-        <v>103600</v>
+        <v>70600</v>
       </c>
       <c r="F9" s="3">
-        <v>71200</v>
+        <v>104800</v>
       </c>
       <c r="G9" s="3">
-        <v>67600</v>
+        <v>69900</v>
       </c>
       <c r="H9" s="3">
-        <v>63300</v>
+        <v>69400</v>
       </c>
       <c r="I9" s="3">
-        <v>86600</v>
+        <v>63400</v>
       </c>
       <c r="J9" s="3">
+        <v>173600</v>
+      </c>
+      <c r="K9" s="3">
         <v>58100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>43400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>36800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>54600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>33400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>30900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>27100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>47000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>25800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>23900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>20000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>28700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>18800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>15400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>12100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>16100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>10700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>9200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>8500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>14700</v>
       </c>
-      <c r="AD9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>70700</v>
+        <v>92400</v>
       </c>
       <c r="E10" s="3">
-        <v>135200</v>
+        <v>70600</v>
       </c>
       <c r="F10" s="3">
-        <v>63600</v>
+        <v>133700</v>
       </c>
       <c r="G10" s="3">
-        <v>80900</v>
+        <v>64900</v>
       </c>
       <c r="H10" s="3">
-        <v>66100</v>
+        <v>79100</v>
       </c>
       <c r="I10" s="3">
-        <v>109600</v>
+        <v>66000</v>
       </c>
       <c r="J10" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K10" s="3">
         <v>58600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>59000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>46100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>75100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>41300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>31000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>27300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>45200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>26300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>24200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>21000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>35500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>22900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>17800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>14700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>22900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>13700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>11500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>9100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>15800</v>
       </c>
-      <c r="AD10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1089,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1162,8 +1176,11 @@
       <c r="AD12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1248,16 +1265,19 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1268,24 +1288,24 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1301,8 +1321,8 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1334,83 +1354,86 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="E15" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F15" s="3">
         <v>2600</v>
       </c>
-      <c r="F15" s="3">
-        <v>2500</v>
-      </c>
       <c r="G15" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H15" s="3">
         <v>3100</v>
       </c>
-      <c r="H15" s="3">
-        <v>2700</v>
-      </c>
       <c r="I15" s="3">
-        <v>2100</v>
+        <v>5300</v>
       </c>
       <c r="J15" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K15" s="3">
         <v>1700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>1100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>1100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>700</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA15" s="3">
         <v>800</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1420,8 +1443,11 @@
       <c r="AD15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1449,180 +1475,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>147100</v>
+        <v>155500</v>
       </c>
       <c r="E17" s="3">
-        <v>200800</v>
+        <v>146900</v>
       </c>
       <c r="F17" s="3">
-        <v>146400</v>
+        <v>202000</v>
       </c>
       <c r="G17" s="3">
-        <v>138600</v>
+        <v>144900</v>
       </c>
       <c r="H17" s="3">
-        <v>126700</v>
+        <v>140400</v>
       </c>
       <c r="I17" s="3">
-        <v>172000</v>
+        <v>126900</v>
       </c>
       <c r="J17" s="3">
+        <v>169900</v>
+      </c>
+      <c r="K17" s="3">
         <v>113700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>93400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>80700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>107900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>72200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>63000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>62800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>86800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>59000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>53100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>50300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>55900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>44400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>40200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>32400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>36500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>26500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>23100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>20800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>36500</v>
       </c>
-      <c r="AD17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-5900</v>
+        <v>-1000</v>
       </c>
       <c r="E18" s="3">
-        <v>38000</v>
+        <v>-5700</v>
       </c>
       <c r="F18" s="3">
-        <v>-11600</v>
+        <v>36500</v>
       </c>
       <c r="G18" s="3">
-        <v>9900</v>
+        <v>-10100</v>
       </c>
       <c r="H18" s="3">
-        <v>2700</v>
+        <v>8100</v>
       </c>
       <c r="I18" s="3">
-        <v>24200</v>
+        <v>2500</v>
       </c>
       <c r="J18" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K18" s="3">
         <v>3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-9300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>8300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-7000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-3200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-6000</v>
       </c>
-      <c r="AD18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1653,44 +1686,45 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1698,13 +1732,13 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
       </c>
       <c r="S20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>200</v>
@@ -1716,10 +1750,10 @@
         <v>200</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>-100</v>
@@ -1728,105 +1762,111 @@
         <v>-100</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2700</v>
+        <v>2400</v>
       </c>
       <c r="E21" s="3">
-        <v>40700</v>
+        <v>-2500</v>
       </c>
       <c r="F21" s="3">
-        <v>-9200</v>
+        <v>39100</v>
       </c>
       <c r="G21" s="3">
-        <v>13000</v>
+        <v>-7700</v>
       </c>
       <c r="H21" s="3">
-        <v>5300</v>
+        <v>11200</v>
       </c>
       <c r="I21" s="3">
-        <v>26300</v>
+        <v>5100</v>
       </c>
       <c r="J21" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K21" s="3">
         <v>4700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>23300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-8000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-6200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-3000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-4800</v>
       </c>
-      <c r="AD21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1906,132 +1946,138 @@
         <v>0</v>
       </c>
       <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
         <v>300</v>
       </c>
-      <c r="AD22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5500</v>
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
-        <v>38100</v>
+        <v>-5400</v>
       </c>
       <c r="F23" s="3">
-        <v>-11700</v>
+        <v>36500</v>
       </c>
       <c r="G23" s="3">
-        <v>9900</v>
+        <v>-10200</v>
       </c>
       <c r="H23" s="3">
-        <v>2600</v>
+        <v>8100</v>
       </c>
       <c r="I23" s="3">
-        <v>24200</v>
+        <v>2500</v>
       </c>
       <c r="J23" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K23" s="3">
         <v>2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>8500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-7000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-3300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-6300</v>
       </c>
-      <c r="AD23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1300</v>
       </c>
-      <c r="E24" s="3">
-        <v>10400</v>
-      </c>
       <c r="F24" s="3">
-        <v>-3200</v>
+        <v>10200</v>
       </c>
       <c r="G24" s="3">
-        <v>2800</v>
+        <v>-2800</v>
       </c>
       <c r="H24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
-        <v>-8500</v>
-      </c>
       <c r="J24" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -2071,8 +2117,8 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>3</v>
+      <c r="AA24" s="3">
+        <v>0</v>
       </c>
       <c r="AB24" s="3" t="s">
         <v>3</v>
@@ -2083,8 +2129,11 @@
       <c r="AD24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2169,180 +2218,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4200</v>
+        <v>-600</v>
       </c>
       <c r="E26" s="3">
-        <v>27600</v>
+        <v>-4100</v>
       </c>
       <c r="F26" s="3">
-        <v>-8400</v>
+        <v>26200</v>
       </c>
       <c r="G26" s="3">
-        <v>7100</v>
+        <v>-7400</v>
       </c>
       <c r="H26" s="3">
-        <v>1900</v>
+        <v>5800</v>
       </c>
       <c r="I26" s="3">
-        <v>32600</v>
+        <v>1800</v>
       </c>
       <c r="J26" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K26" s="3">
         <v>2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>21700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-9100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>8400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-7000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-3300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-6300</v>
       </c>
-      <c r="AD26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4200</v>
+        <v>-600</v>
       </c>
       <c r="E27" s="3">
-        <v>27600</v>
+        <v>-4100</v>
       </c>
       <c r="F27" s="3">
-        <v>-8400</v>
+        <v>26200</v>
       </c>
       <c r="G27" s="3">
-        <v>7100</v>
+        <v>-7400</v>
       </c>
       <c r="H27" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L27" s="3">
+        <v>8400</v>
+      </c>
+      <c r="M27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>21700</v>
+      </c>
+      <c r="O27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="R27" s="3">
+        <v>5400</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="V27" s="3">
+        <v>8400</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="Z27" s="3">
         <v>1900</v>
       </c>
-      <c r="I27" s="3">
-        <v>32600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K27" s="3">
-        <v>8400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>2100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>21700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>2500</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>5400</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="U27" s="3">
-        <v>8400</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-33700</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>1900</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-3300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-6300</v>
       </c>
-      <c r="AD27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2427,8 +2485,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2513,8 +2574,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2599,8 +2663,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2685,44 +2752,47 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2730,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
       <c r="S32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>-200</v>
@@ -2748,10 +2818,10 @@
         <v>-200</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="3">
         <v>100</v>
@@ -2760,105 +2830,111 @@
         <v>100</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>100</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4200</v>
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
-        <v>27600</v>
+        <v>-4100</v>
       </c>
       <c r="F33" s="3">
-        <v>-8400</v>
+        <v>26200</v>
       </c>
       <c r="G33" s="3">
-        <v>7100</v>
+        <v>-7400</v>
       </c>
       <c r="H33" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L33" s="3">
+        <v>8400</v>
+      </c>
+      <c r="M33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>21700</v>
+      </c>
+      <c r="O33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="R33" s="3">
+        <v>5400</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>8400</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="Z33" s="3">
         <v>1900</v>
       </c>
-      <c r="I33" s="3">
-        <v>32600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K33" s="3">
-        <v>8400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>2100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>21700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>2500</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>5400</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="U33" s="3">
-        <v>8400</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-33700</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>1900</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-3300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-6300</v>
       </c>
-      <c r="AD33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2943,185 +3019,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4200</v>
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
-        <v>27600</v>
+        <v>-4100</v>
       </c>
       <c r="F35" s="3">
-        <v>-8400</v>
+        <v>26200</v>
       </c>
       <c r="G35" s="3">
-        <v>7100</v>
+        <v>-7400</v>
       </c>
       <c r="H35" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L35" s="3">
+        <v>8400</v>
+      </c>
+      <c r="M35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>21700</v>
+      </c>
+      <c r="O35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="R35" s="3">
+        <v>5400</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>8400</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="Z35" s="3">
         <v>1900</v>
       </c>
-      <c r="I35" s="3">
-        <v>32600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K35" s="3">
-        <v>8400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>2100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>21700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>2500</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>5400</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="U35" s="3">
-        <v>8400</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-33700</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>1900</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-3300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-6300</v>
       </c>
-      <c r="AD35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45137</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44955</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44864</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44682</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44591</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44409</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44318</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44136</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44045</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43954</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43863</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43772</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43681</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43590</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43499</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43408</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43317</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43226</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43135</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43037</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42946</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42582</v>
       </c>
-      <c r="AD38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3152,8 +3237,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3184,80 +3270,81 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E41" s="3">
         <v>45100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>43500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>64400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>92400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>47900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>68500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>65700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>78300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>47700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>54800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>45500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>48500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>27900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>44200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>35700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>49100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>44700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>48200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9200</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3270,8 +3357,11 @@
       <c r="AD41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3356,80 +3446,83 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E43" s="3">
         <v>18400</v>
       </c>
-      <c r="E43" s="3">
-        <v>9500</v>
-      </c>
       <c r="F43" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G43" s="3">
         <v>15400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2800</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA43" s="3" t="s">
         <v>3</v>
       </c>
@@ -3442,80 +3535,83 @@
       <c r="AD43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>106800</v>
+        <v>105000</v>
       </c>
       <c r="E44" s="3">
-        <v>120000</v>
+        <v>104500</v>
       </c>
       <c r="F44" s="3">
+        <v>119600</v>
+      </c>
+      <c r="G44" s="3">
         <v>154500</v>
       </c>
-      <c r="G44" s="3">
-        <v>146600</v>
-      </c>
       <c r="H44" s="3">
+        <v>145700</v>
+      </c>
+      <c r="I44" s="3">
         <v>123000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>108500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>94500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>75000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>56000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>50400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>57800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>41000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>33400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>36400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>50200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>40700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>30900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>26200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>24600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>20200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>13900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>11600</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3528,80 +3624,83 @@
       <c r="AD44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17300</v>
+        <v>15900</v>
       </c>
       <c r="E45" s="3">
-        <v>21100</v>
+        <v>13400</v>
       </c>
       <c r="F45" s="3">
-        <v>41900</v>
+        <v>15500</v>
       </c>
       <c r="G45" s="3">
-        <v>36000</v>
+        <v>35600</v>
       </c>
       <c r="H45" s="3">
-        <v>16400</v>
+        <v>31200</v>
       </c>
       <c r="I45" s="3">
-        <v>15700</v>
+        <v>12400</v>
       </c>
       <c r="J45" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K45" s="3">
         <v>11400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>6300</v>
-      </c>
-      <c r="W45" s="3">
-        <v>5800</v>
       </c>
       <c r="X45" s="3">
         <v>5800</v>
       </c>
       <c r="Y45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="Z45" s="3">
         <v>6100</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3614,80 +3713,83 @@
       <c r="AD45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>183600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>181500</v>
+      </c>
+      <c r="F46" s="3">
         <v>187700</v>
-      </c>
-      <c r="E46" s="3">
-        <v>194000</v>
-      </c>
-      <c r="F46" s="3">
-        <v>215500</v>
       </c>
       <c r="G46" s="3">
         <v>209300</v>
       </c>
       <c r="H46" s="3">
-        <v>210200</v>
+        <v>203500</v>
       </c>
       <c r="I46" s="3">
-        <v>225200</v>
+        <v>206200</v>
       </c>
       <c r="J46" s="3">
+        <v>221700</v>
+      </c>
+      <c r="K46" s="3">
         <v>163600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>161400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>140200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>143400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>123500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>107800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>91900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>100200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>95400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>97500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>78000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>85100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>78500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>78300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>24900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>29700</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3700,8 +3802,11 @@
       <c r="AD46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3786,80 +3891,83 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>201700</v>
+        <v>212400</v>
       </c>
       <c r="E48" s="3">
-        <v>191200</v>
+        <v>202800</v>
       </c>
       <c r="F48" s="3">
-        <v>180600</v>
+        <v>188300</v>
       </c>
       <c r="G48" s="3">
-        <v>155900</v>
+        <v>179500</v>
       </c>
       <c r="H48" s="3">
+        <v>155300</v>
+      </c>
+      <c r="I48" s="3">
         <v>145400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>135000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>127700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>118400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>117600</v>
-      </c>
-      <c r="M48" s="3">
-        <v>25900</v>
       </c>
       <c r="N48" s="3">
         <v>25900</v>
       </c>
       <c r="O48" s="3">
+        <v>25900</v>
+      </c>
+      <c r="P48" s="3">
         <v>25700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>24400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>23800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>21800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>20400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>19500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>17100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>15700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>13200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>11000</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3872,8 +3980,11 @@
       <c r="AD48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3884,67 +3995,67 @@
         <v>1600</v>
       </c>
       <c r="F49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1500</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1300</v>
       </c>
       <c r="L49" s="3">
         <v>1300</v>
       </c>
       <c r="M49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N49" s="3">
         <v>1700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1200</v>
-      </c>
-      <c r="T49" s="3">
-        <v>1100</v>
       </c>
       <c r="U49" s="3">
         <v>1100</v>
       </c>
       <c r="V49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W49" s="3">
         <v>1000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>800</v>
-      </c>
-      <c r="X49" s="3">
-        <v>700</v>
       </c>
       <c r="Y49" s="3">
         <v>700</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>3</v>
+      <c r="Z49" s="3">
+        <v>700</v>
       </c>
       <c r="AA49" s="3" t="s">
         <v>3</v>
@@ -3958,8 +4069,11 @@
       <c r="AD49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4044,8 +4158,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4130,37 +4247,40 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>37100</v>
+        <v>36000</v>
       </c>
       <c r="E52" s="3">
-        <v>31300</v>
+        <v>35300</v>
       </c>
       <c r="F52" s="3">
-        <v>9800</v>
+        <v>31000</v>
       </c>
       <c r="G52" s="3">
-        <v>7200</v>
+        <v>10800</v>
       </c>
       <c r="H52" s="3">
-        <v>9400</v>
+        <v>8600</v>
       </c>
       <c r="I52" s="3">
-        <v>9800</v>
+        <v>10400</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>10800</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
@@ -4172,13 +4292,13 @@
         <v>100</v>
       </c>
       <c r="P52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="3">
         <v>200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>100</v>
-      </c>
-      <c r="R52" s="3">
-        <v>200</v>
       </c>
       <c r="S52" s="3">
         <v>200</v>
@@ -4193,16 +4313,16 @@
         <v>200</v>
       </c>
       <c r="W52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X52" s="3">
         <v>300</v>
       </c>
       <c r="Y52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>3</v>
@@ -4216,8 +4336,11 @@
       <c r="AD52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4302,80 +4425,83 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>428000</v>
+        <v>433600</v>
       </c>
       <c r="E54" s="3">
-        <v>418100</v>
+        <v>421200</v>
       </c>
       <c r="F54" s="3">
-        <v>407400</v>
+        <v>408600</v>
       </c>
       <c r="G54" s="3">
-        <v>373900</v>
+        <v>401100</v>
       </c>
       <c r="H54" s="3">
-        <v>366600</v>
+        <v>368900</v>
       </c>
       <c r="I54" s="3">
-        <v>371600</v>
+        <v>363600</v>
       </c>
       <c r="J54" s="3">
+        <v>369100</v>
+      </c>
+      <c r="K54" s="3">
         <v>292800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>281300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>259200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>171000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>151100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>135300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>118100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>125700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>118700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>119300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>98800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>105000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>96800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>95100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>39100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>41400</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4388,8 +4514,11 @@
       <c r="AD54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4420,8 +4549,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4452,80 +4582,81 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>32200</v>
+        <v>33900</v>
       </c>
       <c r="E57" s="3">
+        <v>30100</v>
+      </c>
+      <c r="F57" s="3">
         <v>24600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>47300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>34200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>29800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>25400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>25900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>24300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>25200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>24500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>17400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>17700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>19800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>16800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>16900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>15300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>12200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>12700</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4538,8 +4669,11 @@
       <c r="AD57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4609,8 +4743,8 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>3</v>
+      <c r="Z58" s="3">
+        <v>0</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>3</v>
@@ -4624,80 +4758,83 @@
       <c r="AD58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>64800</v>
+        <v>63500</v>
       </c>
       <c r="E59" s="3">
-        <v>64300</v>
+        <v>59000</v>
       </c>
       <c r="F59" s="3">
-        <v>71700</v>
+        <v>57500</v>
       </c>
       <c r="G59" s="3">
-        <v>63800</v>
+        <v>64100</v>
       </c>
       <c r="H59" s="3">
-        <v>74100</v>
+        <v>58600</v>
       </c>
       <c r="I59" s="3">
-        <v>85500</v>
+        <v>69600</v>
       </c>
       <c r="J59" s="3">
+        <v>81400</v>
+      </c>
+      <c r="K59" s="3">
         <v>56100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>54700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>46000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>32000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>34300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>23600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4000</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4710,80 +4847,83 @@
       <c r="AD59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>96900</v>
+        <v>97300</v>
       </c>
       <c r="E60" s="3">
-        <v>88800</v>
+        <v>89100</v>
       </c>
       <c r="F60" s="3">
-        <v>119000</v>
+        <v>82000</v>
       </c>
       <c r="G60" s="3">
-        <v>98100</v>
+        <v>111400</v>
       </c>
       <c r="H60" s="3">
-        <v>103900</v>
+        <v>92900</v>
       </c>
       <c r="I60" s="3">
-        <v>118800</v>
+        <v>99400</v>
       </c>
       <c r="J60" s="3">
+        <v>114700</v>
+      </c>
+      <c r="K60" s="3">
         <v>81600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>80600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>63700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>56300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>59500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>48000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>32300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>32400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>31800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>27100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>27400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>24600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>25100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>21500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>18200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>16700</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4796,8 +4936,11 @@
       <c r="AD60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4862,11 +5005,11 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>1500</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4882,80 +5025,83 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>141900</v>
+        <v>149400</v>
       </c>
       <c r="E62" s="3">
-        <v>136000</v>
+        <v>142800</v>
       </c>
       <c r="F62" s="3">
+        <v>133500</v>
+      </c>
+      <c r="G62" s="3">
         <v>130200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>109900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>103500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>96600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>90700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>83700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>84700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1700</v>
-      </c>
-      <c r="T62" s="3">
-        <v>1600</v>
       </c>
       <c r="U62" s="3">
         <v>1600</v>
       </c>
       <c r="V62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W62" s="3">
         <v>1400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1100</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4968,8 +5114,11 @@
       <c r="AD62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5054,8 +5203,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5140,8 +5292,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5226,80 +5381,83 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>238800</v>
+        <v>246800</v>
       </c>
       <c r="E66" s="3">
-        <v>224800</v>
+        <v>232000</v>
       </c>
       <c r="F66" s="3">
-        <v>249200</v>
+        <v>215500</v>
       </c>
       <c r="G66" s="3">
-        <v>207900</v>
+        <v>241600</v>
       </c>
       <c r="H66" s="3">
-        <v>207300</v>
+        <v>202700</v>
       </c>
       <c r="I66" s="3">
-        <v>215400</v>
+        <v>202900</v>
       </c>
       <c r="J66" s="3">
+        <v>211300</v>
+      </c>
+      <c r="K66" s="3">
         <v>172200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>164300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>148500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>63100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>65900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>53500</v>
-      </c>
-      <c r="P66" s="3">
-        <v>35500</v>
       </c>
       <c r="Q66" s="3">
         <v>35500</v>
       </c>
       <c r="R66" s="3">
+        <v>35500</v>
+      </c>
+      <c r="S66" s="3">
         <v>34300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>28700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>29000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>26200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>26500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>22900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>20800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>17800</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5312,8 +5470,11 @@
       <c r="AD66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5344,8 +5505,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5430,8 +5592,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5516,8 +5681,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5602,8 +5770,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5688,80 +5859,83 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6500</v>
+        <v>5800</v>
       </c>
       <c r="E72" s="3">
-        <v>10700</v>
+        <v>6400</v>
       </c>
       <c r="F72" s="3">
-        <v>-16900</v>
+        <v>10500</v>
       </c>
       <c r="G72" s="3">
-        <v>-8500</v>
+        <v>-15700</v>
       </c>
       <c r="H72" s="3">
-        <v>-15600</v>
+        <v>-8300</v>
       </c>
       <c r="I72" s="3">
-        <v>-17500</v>
+        <v>-14200</v>
       </c>
       <c r="J72" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-50200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-52900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-61400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-63400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-85100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-87600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-86500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-78200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-83600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-76800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-72100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-63000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-71400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-68900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-61900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-56300</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5774,8 +5948,11 @@
       <c r="AD72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5860,8 +6037,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5946,8 +6126,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6032,80 +6215,83 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>189200</v>
+        <v>186800</v>
       </c>
       <c r="E76" s="3">
-        <v>193300</v>
+        <v>189300</v>
       </c>
       <c r="F76" s="3">
-        <v>158200</v>
+        <v>193100</v>
       </c>
       <c r="G76" s="3">
-        <v>166000</v>
+        <v>159400</v>
       </c>
       <c r="H76" s="3">
-        <v>159200</v>
+        <v>166200</v>
       </c>
       <c r="I76" s="3">
-        <v>156200</v>
+        <v>160700</v>
       </c>
       <c r="J76" s="3">
+        <v>157800</v>
+      </c>
+      <c r="K76" s="3">
         <v>120600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>116900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>110700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>107900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>85300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>81800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>82600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>90200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>84400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>90600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>69700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>78800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>70300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>72200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>18300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>23600</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
@@ -6118,8 +6304,11 @@
       <c r="AD76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6204,185 +6393,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45137</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44955</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44864</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44682</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44591</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44409</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44318</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44136</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44045</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43954</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43863</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43772</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43681</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43590</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43499</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43408</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43317</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43226</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43135</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43037</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42946</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42582</v>
       </c>
-      <c r="AD80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4200</v>
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
-        <v>27600</v>
+        <v>-4100</v>
       </c>
       <c r="F81" s="3">
-        <v>-8400</v>
+        <v>26200</v>
       </c>
       <c r="G81" s="3">
-        <v>7100</v>
+        <v>-7400</v>
       </c>
       <c r="H81" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L81" s="3">
+        <v>8400</v>
+      </c>
+      <c r="M81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>21700</v>
+      </c>
+      <c r="O81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="R81" s="3">
+        <v>5400</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>8400</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="X81" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="Z81" s="3">
         <v>1900</v>
       </c>
-      <c r="I81" s="3">
-        <v>32600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K81" s="3">
-        <v>8400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>2100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>21700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>2500</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>5400</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="U81" s="3">
-        <v>8400</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-33700</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>1900</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-3300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-6300</v>
       </c>
-      <c r="AD81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6413,94 +6611,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>800</v>
-      </c>
-      <c r="X83" s="3">
-        <v>700</v>
       </c>
       <c r="Y83" s="3">
         <v>700</v>
       </c>
       <c r="Z83" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA83" s="3">
         <v>800</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>300</v>
       </c>
       <c r="AB83" s="3">
         <v>300</v>
       </c>
       <c r="AC83" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD83" s="3">
         <v>1200</v>
       </c>
-      <c r="AD83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6585,8 +6787,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6671,8 +6876,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6757,8 +6965,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6843,8 +7054,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6929,94 +7143,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E89" s="3">
         <v>6300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>43800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-37600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-21800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>49200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-15900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>33600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>12600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>25200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-13400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-14900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-8200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-7700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>6800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-4600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-4200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-6300</v>
       </c>
-      <c r="AD89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7047,94 +7267,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4200</v>
       </c>
-      <c r="E91" s="3">
-        <v>-4000</v>
-      </c>
       <c r="F91" s="3">
-        <v>-7900</v>
+        <v>-7200</v>
       </c>
       <c r="G91" s="3">
-        <v>-7600</v>
+        <v>-8200</v>
       </c>
       <c r="H91" s="3">
-        <v>-6000</v>
+        <v>-5600</v>
       </c>
       <c r="I91" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="J91" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1400</v>
       </c>
-      <c r="AD91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7219,8 +7443,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7305,94 +7532,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4200</v>
       </c>
-      <c r="E94" s="3">
-        <v>-4000</v>
-      </c>
       <c r="F94" s="3">
-        <v>-7900</v>
+        <v>-7200</v>
       </c>
       <c r="G94" s="3">
-        <v>-7600</v>
+        <v>-8200</v>
       </c>
       <c r="H94" s="3">
-        <v>-6000</v>
+        <v>-5600</v>
       </c>
       <c r="I94" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="J94" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-1900</v>
       </c>
       <c r="N94" s="3">
         <v>-1900</v>
       </c>
       <c r="O94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P94" s="3">
         <v>-2900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>-2300</v>
       </c>
       <c r="AA94" s="3">
         <v>-2300</v>
       </c>
       <c r="AB94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1400</v>
       </c>
-      <c r="AD94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7423,8 +7656,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7509,8 +7743,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7595,8 +7832,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7681,8 +7921,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7767,94 +8010,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
       </c>
       <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-900</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>25400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-300</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>57400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>7900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>6400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>5300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>8400</v>
       </c>
-      <c r="AD100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7939,90 +8188,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E102" s="3">
         <v>1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>39700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-46700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-28000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>44500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-20600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-12600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>30700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>20600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-16300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>8500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>46300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>4900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>700</v>
       </c>
-      <c r="AD102" s="3" t="s">
+      <c r="AE102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
